--- a/docs/collections/tanaka/metadata/data.xlsx
+++ b/docs/collections/tanaka/metadata/data.xlsx
@@ -203,7 +203,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/d230f1f8-5929-4138-bb28-1108d77fd32a</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/154118/full/200,151/0/default.jpg</t>

--- a/docs/collections/tanaka/metadata/data.xlsx
+++ b/docs/collections/tanaka/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2030">
   <si>
     <t>タイトル</t>
   </si>
@@ -3441,6 +3441,2670 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b9e50108-b8b0-43e5-ae16-c5c51d3e457c/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 総目録</t>
+  </si>
+  <si>
+    <t>A00:5764</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0b518e37-12f5-541a-75e0-59f12e3c8d3a.json</t>
+  </si>
+  <si>
+    <t>0b518e37-12f5-541a-75e0-59f12e3c8d3a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/0b518e37-12f5-541a-75e0-59f12e3c8d3a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9ac10789cbbc136ee92ed68b8de5e0cfb22edeed.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520321</t>
+  </si>
+  <si>
+    <t>10000001</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/0b518e37-12f5-541a-75e0-59f12e3c8d3a/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲第五~九巻目録</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bede4424-0e6d-6427-9962-e167fee21e7b.json</t>
+  </si>
+  <si>
+    <t>bede4424-0e6d-6427-9962-e167fee21e7b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/bede4424-0e6d-6427-9962-e167fee21e7b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cfaabdfd2fdf5cd8ee3f376ef9da9ea5b9b4d0e4.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520322</t>
+  </si>
+  <si>
+    <t>10000002</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/bede4424-0e6d-6427-9962-e167fee21e7b/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲一</t>
+  </si>
+  <si>
+    <t>獣類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bf706b06-a646-0f02-32e5-dae33f196dc9.json</t>
+  </si>
+  <si>
+    <t>bf706b06-a646-0f02-32e5-dae33f196dc9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/bf706b06-a646-0f02-32e5-dae33f196dc9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0d9d78906e7a7aab62a36c47012ab6712a5161cb.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520323</t>
+  </si>
+  <si>
+    <t>10000003</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/bf706b06-a646-0f02-32e5-dae33f196dc9/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二</t>
+  </si>
+  <si>
+    <t>鳥類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/40a8f611-0280-70ab-3f36-83127c454fcd.json</t>
+  </si>
+  <si>
+    <t>40a8f611-0280-70ab-3f36-83127c454fcd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/40a8f611-0280-70ab-3f36-83127c454fcd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e34e212be851c7f94d6b10644ef5340e8b1f248d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520324</t>
+  </si>
+  <si>
+    <t>10000004</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/40a8f611-0280-70ab-3f36-83127c454fcd/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三</t>
+  </si>
+  <si>
+    <t>爬虫類(蛇・蝦蟆類)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b6925dc8-531a-967a-5bff-5cf3cfd252e2.json</t>
+  </si>
+  <si>
+    <t>b6925dc8-531a-967a-5bff-5cf3cfd252e2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b6925dc8-531a-967a-5bff-5cf3cfd252e2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/979c18c0ff6eaff7735ebdf42e8f69063a779cc8.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520325</t>
+  </si>
+  <si>
+    <t>10000005</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b6925dc8-531a-967a-5bff-5cf3cfd252e2/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四</t>
+  </si>
+  <si>
+    <t>虫類</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5700ccf7-8d5c-9225-6218-72c8d24e983c.json</t>
+  </si>
+  <si>
+    <t>5700ccf7-8d5c-9225-6218-72c8d24e983c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/5700ccf7-8d5c-9225-6218-72c8d24e983c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1438acd6ad2cc8d2920ffb0048ca08baf7768342.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520326</t>
+  </si>
+  <si>
+    <t>10000006</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5700ccf7-8d5c-9225-6218-72c8d24e983c/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲五</t>
+  </si>
+  <si>
+    <t>穀類</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a83921af-5658-65c6-9bd5-1f05c8217844.json</t>
+  </si>
+  <si>
+    <t>a83921af-5658-65c6-9bd5-1f05c8217844</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/a83921af-5658-65c6-9bd5-1f05c8217844</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6df89b04d1e3ea6ec45b22e175c47e9aedb92226.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520327</t>
+  </si>
+  <si>
+    <t>10000007</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a83921af-5658-65c6-9bd5-1f05c8217844/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲六</t>
+  </si>
+  <si>
+    <t>菽類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/51651f58-2982-3fc8-a7a8-f364b283084f.json</t>
+  </si>
+  <si>
+    <t>51651f58-2982-3fc8-a7a8-f364b283084f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/51651f58-2982-3fc8-a7a8-f364b283084f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b652d5ac961f03b3e38b8f5a051ad31138f73844.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520328</t>
+  </si>
+  <si>
+    <t>10000008</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/51651f58-2982-3fc8-a7a8-f364b283084f/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲七</t>
+  </si>
+  <si>
+    <t>葉菜類、花菜類、香辛類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/731b17ff-4c0e-5bc3-64d6-0ae662805c50.json</t>
+  </si>
+  <si>
+    <t>731b17ff-4c0e-5bc3-64d6-0ae662805c50</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/731b17ff-4c0e-5bc3-64d6-0ae662805c50</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2278e7a6dd556310a5e8c953ce1b92ec4175654c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520329</t>
+  </si>
+  <si>
+    <t>10000009</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/731b17ff-4c0e-5bc3-64d6-0ae662805c50/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲八</t>
+  </si>
+  <si>
+    <t>根菜類</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4d5b1a3c-16ac-769f-220d-ed0b299d3186.json</t>
+  </si>
+  <si>
+    <t>4d5b1a3c-16ac-769f-220d-ed0b299d3186</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4d5b1a3c-16ac-769f-220d-ed0b299d3186</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/12a68716949182f9c04cc7f9bbd1354cc50b7564.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520330</t>
+  </si>
+  <si>
+    <t>10000010</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4d5b1a3c-16ac-769f-220d-ed0b299d3186/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲九</t>
+  </si>
+  <si>
+    <t>蓏菜類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5b255161-7ccb-a240-6d99-00d163ef1a8c.json</t>
+  </si>
+  <si>
+    <t>5b255161-7ccb-a240-6d99-00d163ef1a8c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/5b255161-7ccb-a240-6d99-00d163ef1a8c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7931e54bd1d07e78cd81f879be12c1c08e35b722.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520331</t>
+  </si>
+  <si>
+    <t>10000011</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5b255161-7ccb-a240-6d99-00d163ef1a8c/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十</t>
+  </si>
+  <si>
+    <t>果物類一 核果類</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/98750ad7-5223-0c69-75a9-f84040ff285c.json</t>
+  </si>
+  <si>
+    <t>98750ad7-5223-0c69-75a9-f84040ff285c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/98750ad7-5223-0c69-75a9-f84040ff285c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/078532f7cf1fe4e47ed129eca027c2724080009f.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520332</t>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/98750ad7-5223-0c69-75a9-f84040ff285c/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十一</t>
+  </si>
+  <si>
+    <t>果物類二 仁果類、梨等</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1b250af1-77fd-1e1b-22f1-829f0f4e0751.json</t>
+  </si>
+  <si>
+    <t>1b250af1-77fd-1e1b-22f1-829f0f4e0751</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/1b250af1-77fd-1e1b-22f1-829f0f4e0751</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/66948b427d40f45bd3675623840a36dc658f6746.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520333</t>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/1b250af1-77fd-1e1b-22f1-829f0f4e0751/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十二</t>
+  </si>
+  <si>
+    <t>果物類三 枇杷</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1776ee83-373f-7081-9e1d-78bb7cad83ba.json</t>
+  </si>
+  <si>
+    <t>1776ee83-373f-7081-9e1d-78bb7cad83ba</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/1776ee83-373f-7081-9e1d-78bb7cad83ba</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/428a3979d6b72d0f545a1fc820804abfdf43ace8.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520334</t>
+  </si>
+  <si>
+    <t>10000014</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/1776ee83-373f-7081-9e1d-78bb7cad83ba/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十三甲</t>
+  </si>
+  <si>
+    <t>果物類四 柿甲</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d7acf632-7c9f-2227-4516-534457f19aa1.json</t>
+  </si>
+  <si>
+    <t>d7acf632-7c9f-2227-4516-534457f19aa1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/d7acf632-7c9f-2227-4516-534457f19aa1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ca7b867bda180cc3deca392d966766475ba8714d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520335</t>
+  </si>
+  <si>
+    <t>10000015</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d7acf632-7c9f-2227-4516-534457f19aa1/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十三乙</t>
+  </si>
+  <si>
+    <t>果物類四 柿乙</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/76eff0d2-3059-58a4-0c9b-76fb64380eb6.json</t>
+  </si>
+  <si>
+    <t>76eff0d2-3059-58a4-0c9b-76fb64380eb6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/76eff0d2-3059-58a4-0c9b-76fb64380eb6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a337f4af8f3467646750a3faa6605517d6e5e49b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520336</t>
+  </si>
+  <si>
+    <t>10000016</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/76eff0d2-3059-58a4-0c9b-76fb64380eb6/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十四</t>
+  </si>
+  <si>
+    <t>果物類五 柑類</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d578f56d-3823-10ba-25b6-8d6803e16a3b.json</t>
+  </si>
+  <si>
+    <t>d578f56d-3823-10ba-25b6-8d6803e16a3b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/d578f56d-3823-10ba-25b6-8d6803e16a3b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/68353b05646fc6a36251171206e7e631ac04c9e3.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520337</t>
+  </si>
+  <si>
+    <t>10000017</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d578f56d-3823-10ba-25b6-8d6803e16a3b/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十五</t>
+  </si>
+  <si>
+    <t>果物類六 漿果類、乾果類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/346743a5-99ac-3d20-2bc2-b99e8a784bcd.json</t>
+  </si>
+  <si>
+    <t>346743a5-99ac-3d20-2bc2-b99e8a784bcd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/346743a5-99ac-3d20-2bc2-b99e8a784bcd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cf3fdc5ef1e20b18b32df2abd2b87bcdf10c23b1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520338</t>
+  </si>
+  <si>
+    <t>10000018</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/346743a5-99ac-3d20-2bc2-b99e8a784bcd/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十六</t>
+  </si>
+  <si>
+    <t>菌蕈類、澱粉類、清娯類、牧草類</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4d00578b-61d8-0b61-579b-e29734d82286.json</t>
+  </si>
+  <si>
+    <t>4d00578b-61d8-0b61-579b-e29734d82286</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4d00578b-61d8-0b61-579b-e29734d82286</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cce4d689ad46798002bc043a4a116082efeaef2e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520339</t>
+  </si>
+  <si>
+    <t>10000019</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4d00578b-61d8-0b61-579b-e29734d82286/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十七</t>
+  </si>
+  <si>
+    <t>各用類、油蝋類、染色吏、薬用類、有毒類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e2e9cbf2-2c58-3675-0928-cb540bae5542.json</t>
+  </si>
+  <si>
+    <t>e2e9cbf2-2c58-3675-0928-cb540bae5542</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/e2e9cbf2-2c58-3675-0928-cb540bae5542</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f57e9ca64af8145e4b7bad1b2b542d60aa3def19.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520340</t>
+  </si>
+  <si>
+    <t>10000020</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e2e9cbf2-2c58-3675-0928-cb540bae5542/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十八</t>
+  </si>
+  <si>
+    <t>繊維類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/236df921-1d61-7c0f-a126-2f323bc228d8.json</t>
+  </si>
+  <si>
+    <t>236df921-1d61-7c0f-a126-2f323bc228d8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/236df921-1d61-7c0f-a126-2f323bc228d8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fc4306a32b2b5c61a67db41b1a9a0e118cf5d05d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520341</t>
+  </si>
+  <si>
+    <t>10000021</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/236df921-1d61-7c0f-a126-2f323bc228d8/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲十九</t>
+  </si>
+  <si>
+    <t>木材類(乙三ニモ出)</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/509c2658-3530-7fd2-0b33-65413468053a.json</t>
+  </si>
+  <si>
+    <t>509c2658-3530-7fd2-0b33-65413468053a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/509c2658-3530-7fd2-0b33-65413468053a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/59caad302f8cc2914b721d3ab3cd6d1666c0287e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520342</t>
+  </si>
+  <si>
+    <t>10000022</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/509c2658-3530-7fd2-0b33-65413468053a/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二十</t>
+  </si>
+  <si>
+    <t>竹類(乙四ニモ出)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6fca0d7c-602d-5937-2ec8-e0d488d0420b.json</t>
+  </si>
+  <si>
+    <t>6fca0d7c-602d-5937-2ec8-e0d488d0420b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/6fca0d7c-602d-5937-2ec8-e0d488d0420b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c10e0a490e55a7f8bef29b11c0ed29e83afffe7e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520343</t>
+  </si>
+  <si>
+    <t>10000023</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/6fca0d7c-602d-5937-2ec8-e0d488d0420b/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二一</t>
+  </si>
+  <si>
+    <t>松栢科類、常緑類、落葉類</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/150e5b9c-3334-3de8-1193-a5572c3c5f3c.json</t>
+  </si>
+  <si>
+    <t>150e5b9c-3334-3de8-1193-a5572c3c5f3c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/150e5b9c-3334-3de8-1193-a5572c3c5f3c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1bc94e544fe917fca591c17e7336a81285728857.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520344</t>
+  </si>
+  <si>
+    <t>10000024</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/150e5b9c-3334-3de8-1193-a5572c3c5f3c/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二二</t>
+  </si>
+  <si>
+    <t>鑑賞類</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/555c3b21-4382-51ee-32b5-161a98f24c63.json</t>
+  </si>
+  <si>
+    <t>555c3b21-4382-51ee-32b5-161a98f24c63</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/555c3b21-4382-51ee-32b5-161a98f24c63</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4ad611b9e4a0c216a913c1f62ffeb6a5892d3a11.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520345</t>
+  </si>
+  <si>
+    <t>10000025</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/555c3b21-4382-51ee-32b5-161a98f24c63/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二三</t>
+  </si>
+  <si>
+    <t>植物雑部一</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/47de0d6b-12b9-0da5-4b83-b8084e899855.json</t>
+  </si>
+  <si>
+    <t>47de0d6b-12b9-0da5-4b83-b8084e899855</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/47de0d6b-12b9-0da5-4b83-b8084e899855</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/453c0e7758a6d7c8e287819f7d8c806c41ad2efc.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520346</t>
+  </si>
+  <si>
+    <t>10000026</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/47de0d6b-12b9-0da5-4b83-b8084e899855/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二四</t>
+  </si>
+  <si>
+    <t>植物雑部二</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cda336ea-27bc-30a6-6502-4fb33c200641.json</t>
+  </si>
+  <si>
+    <t>cda336ea-27bc-30a6-6502-4fb33c200641</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/cda336ea-27bc-30a6-6502-4fb33c200641</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f1c4e362e7072ca353559f3e146b1565c7b47f6c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520347</t>
+  </si>
+  <si>
+    <t>10000027</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/cda336ea-27bc-30a6-6502-4fb33c200641/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二五</t>
+  </si>
+  <si>
+    <t>植物三 雑部</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b68358ba-292b-578e-a196-2ea5b2898416.json</t>
+  </si>
+  <si>
+    <t>b68358ba-292b-578e-a196-2ea5b2898416</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b68358ba-292b-578e-a196-2ea5b2898416</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/54e769a561b1e43a1e023313db3ed87243f517b3.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520348</t>
+  </si>
+  <si>
+    <t>10000028</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b68358ba-292b-578e-a196-2ea5b2898416/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二六</t>
+  </si>
+  <si>
+    <t>北海道植物</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/650bb00d-9bbd-898c-7167-9437bf2c8e3e.json</t>
+  </si>
+  <si>
+    <t>650bb00d-9bbd-898c-7167-9437bf2c8e3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/650bb00d-9bbd-898c-7167-9437bf2c8e3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/731f53c643fa22a3923bc8f6748e79337a00629b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520349</t>
+  </si>
+  <si>
+    <t>10000029</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/650bb00d-9bbd-898c-7167-9437bf2c8e3e/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二七</t>
+  </si>
+  <si>
+    <t>外国植物</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/94e53c79-5fe1-1b2a-86c4-fde1f9561bf7.json</t>
+  </si>
+  <si>
+    <t>94e53c79-5fe1-1b2a-86c4-fde1f9561bf7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/94e53c79-5fe1-1b2a-86c4-fde1f9561bf7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0278b49bd393e79a1090032903ce45d67da3af5c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520350</t>
+  </si>
+  <si>
+    <t>10000030</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/94e53c79-5fe1-1b2a-86c4-fde1f9561bf7/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二八</t>
+  </si>
+  <si>
+    <t>鉱物類(乙五ニモ出)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6341d343-4770-6694-86b4-f7531b1169f8.json</t>
+  </si>
+  <si>
+    <t>6341d343-4770-6694-86b4-f7531b1169f8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/6341d343-4770-6694-86b4-f7531b1169f8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/955aa745d09099bde1d14d24063a62f3dcfc8a66.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520351</t>
+  </si>
+  <si>
+    <t>10000031</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/6341d343-4770-6694-86b4-f7531b1169f8/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲二九</t>
+  </si>
+  <si>
+    <t>鉱物類 附掘出古器物類(乙五ニモ出)</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a67aaeca-5c3d-873d-5e53-0555578e1bc9.json</t>
+  </si>
+  <si>
+    <t>a67aaeca-5c3d-873d-5e53-0555578e1bc9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/a67aaeca-5c3d-873d-5e53-0555578e1bc9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a13c5fef8d3d1dcd147fe0fdc8900d9163fb9fa1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520352</t>
+  </si>
+  <si>
+    <t>10000032</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a67aaeca-5c3d-873d-5e53-0555578e1bc9/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三十</t>
+  </si>
+  <si>
+    <t>水獣類 爬虫類、亀鼈、鯢魚、水蛇</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/620c0f96-8052-62c2-5731-a9dd0a7d80b0.json</t>
+  </si>
+  <si>
+    <t>620c0f96-8052-62c2-5731-a9dd0a7d80b0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/620c0f96-8052-62c2-5731-a9dd0a7d80b0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f655805a0be7394c6ee456f638070e8ecb61c664.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520353</t>
+  </si>
+  <si>
+    <t>10000033</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/620c0f96-8052-62c2-5731-a9dd0a7d80b0/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三一</t>
+  </si>
+  <si>
+    <t>甲殻類 附六脚虫類</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/223672ef-6390-23d5-1dc1-32ff9ef65498.json</t>
+  </si>
+  <si>
+    <t>223672ef-6390-23d5-1dc1-32ff9ef65498</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/223672ef-6390-23d5-1dc1-32ff9ef65498</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/be04ccfa6a87c7898a4c7ced6247ace729b266a4.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520354</t>
+  </si>
+  <si>
+    <t>10000034</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/223672ef-6390-23d5-1dc1-32ff9ef65498/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三二</t>
+  </si>
+  <si>
+    <t>軟体類一 頭脚類、単殻類 附蝸牛(乙六ニ出)</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/10f810b8-0351-05fa-5d7b-0b2cd1d14122.json</t>
+  </si>
+  <si>
+    <t>10f810b8-0351-05fa-5d7b-0b2cd1d14122</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/10f810b8-0351-05fa-5d7b-0b2cd1d14122</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ebfcc5df4a3e09086e6a57bfd3ae873e18003cf2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520355</t>
+  </si>
+  <si>
+    <t>10000035</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/10f810b8-0351-05fa-5d7b-0b2cd1d14122/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三三</t>
+  </si>
+  <si>
+    <t>軟体類二 双殻類、軟躰類混交物(乙六ニ出)</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e817e804-5ba5-7811-5c68-06589d770930.json</t>
+  </si>
+  <si>
+    <t>e817e804-5ba5-7811-5c68-06589d770930</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/e817e804-5ba5-7811-5c68-06589d770930</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d40456334d526a460b4f830a05478a4d185b775c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520356</t>
+  </si>
+  <si>
+    <t>10000036</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e817e804-5ba5-7811-5c68-06589d770930/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三四</t>
+  </si>
+  <si>
+    <t>水虫類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ae625e8a-71b9-5061-3731-9fbacc56318a.json</t>
+  </si>
+  <si>
+    <t>ae625e8a-71b9-5061-3731-9fbacc56318a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/ae625e8a-71b9-5061-3731-9fbacc56318a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cf90d4c0af0b151aced6568590722abdcfa4b8fd.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520357</t>
+  </si>
+  <si>
+    <t>10000037</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ae625e8a-71b9-5061-3731-9fbacc56318a/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三五</t>
+  </si>
+  <si>
+    <t>魚類一 棘鰭類(乙七ニモアリ)</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4d46476a-763d-5aa8-1ac0-d0d3a59f38b2.json</t>
+  </si>
+  <si>
+    <t>4d46476a-763d-5aa8-1ac0-d0d3a59f38b2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4d46476a-763d-5aa8-1ac0-d0d3a59f38b2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f7725cb2cfb37eca24de7cc4453476bc3459cfc6.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520358</t>
+  </si>
+  <si>
+    <t>10000038</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4d46476a-763d-5aa8-1ac0-d0d3a59f38b2/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三六</t>
+  </si>
+  <si>
+    <t>魚類二 軟鰭類(乙七ニモアリ)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/abaab46f-897e-89d5-56a4-b93ebabe4f3e.json</t>
+  </si>
+  <si>
+    <t>abaab46f-897e-89d5-56a4-b93ebabe4f3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/abaab46f-897e-89d5-56a4-b93ebabe4f3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/edcff3a44417d5f16795c095f4c476318c269b8a.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520359</t>
+  </si>
+  <si>
+    <t>10000039</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/abaab46f-897e-89d5-56a4-b93ebabe4f3e/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三七</t>
+  </si>
+  <si>
+    <t>魚類三 異鰓類及雑部(乙七ニモアリ)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/66d39942-5ba8-7682-4932-4e748fe4516f.json</t>
+  </si>
+  <si>
+    <t>66d39942-5ba8-7682-4932-4e748fe4516f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/66d39942-5ba8-7682-4932-4e748fe4516f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b540d34e9492e698166f6417d9d0f9b7d16f170b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520360</t>
+  </si>
+  <si>
+    <t>10000040</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/66d39942-5ba8-7682-4932-4e748fe4516f/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三八</t>
+  </si>
+  <si>
+    <t>海藻類一 昆布類(乙八海藻中ニモアリ)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d7624f7f-6adf-4567-4acb-51411c2d8437.json</t>
+  </si>
+  <si>
+    <t>d7624f7f-6adf-4567-4acb-51411c2d8437</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/d7624f7f-6adf-4567-4acb-51411c2d8437</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/da600b619596be5bcd1e29176ef85c8a24b8c17f.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520361</t>
+  </si>
+  <si>
+    <t>10000041</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d7624f7f-6adf-4567-4acb-51411c2d8437/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲三九</t>
+  </si>
+  <si>
+    <t>海藻類二 苔藻、水草類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c891f534-81e5-7bd2-0fdb-b7982e376630.json</t>
+  </si>
+  <si>
+    <t>c891f534-81e5-7bd2-0fdb-b7982e376630</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/c891f534-81e5-7bd2-0fdb-b7982e376630</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8a9fc7b15e6bc2706460a7dc2717c1184bc885af.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520362</t>
+  </si>
+  <si>
+    <t>10000042</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c891f534-81e5-7bd2-0fdb-b7982e376630/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四十</t>
+  </si>
+  <si>
+    <t>海藻類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/07e1ace9-12d7-40d9-8e23-c3c24a2d1df1.json</t>
+  </si>
+  <si>
+    <t>07e1ace9-12d7-40d9-8e23-c3c24a2d1df1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/07e1ace9-12d7-40d9-8e23-c3c24a2d1df1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/080784b5bc8af61cf58ec2ed771dbb523c340c70.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520363</t>
+  </si>
+  <si>
+    <t>10000043</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/07e1ace9-12d7-40d9-8e23-c3c24a2d1df1/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四一</t>
+  </si>
+  <si>
+    <t>水産各種混交物</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7829c96a-2e1d-3c61-03a6-e22c727a98d1.json</t>
+  </si>
+  <si>
+    <t>7829c96a-2e1d-3c61-03a6-e22c727a98d1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/7829c96a-2e1d-3c61-03a6-e22c727a98d1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7fd220b28f77d1c5591db522bb5eda9d4a692ff.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520364</t>
+  </si>
+  <si>
+    <t>10000044</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/7829c96a-2e1d-3c61-03a6-e22c727a98d1/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四二</t>
+  </si>
+  <si>
+    <t>雑部</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bd3c2806-63c5-7ebd-1dad-41f0b7a866d1.json</t>
+  </si>
+  <si>
+    <t>bd3c2806-63c5-7ebd-1dad-41f0b7a866d1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/bd3c2806-63c5-7ebd-1dad-41f0b7a866d1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/47ff904b8bbe7a75ccc3da1436c571491f28d3ea.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520365</t>
+  </si>
+  <si>
+    <t>10000045</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/bd3c2806-63c5-7ebd-1dad-41f0b7a866d1/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四三</t>
+  </si>
+  <si>
+    <t>雑集</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b0a83c60-88f0-6c86-4779-c7a9748723c6.json</t>
+  </si>
+  <si>
+    <t>b0a83c60-88f0-6c86-4779-c7a9748723c6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b0a83c60-88f0-6c86-4779-c7a9748723c6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/068b13b6aff92af58d52c5161f3dcb56d51261c9.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520366</t>
+  </si>
+  <si>
+    <t>10000046</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b0a83c60-88f0-6c86-4779-c7a9748723c6/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四四</t>
+  </si>
+  <si>
+    <t>小笠原島産物</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/358deb00-430f-5bd5-9801-51a5abc63c6b.json</t>
+  </si>
+  <si>
+    <t>358deb00-430f-5bd5-9801-51a5abc63c6b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/358deb00-430f-5bd5-9801-51a5abc63c6b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7f3d7713866c57f91df3cdd66e0b62ba4fe6acd9.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520367</t>
+  </si>
+  <si>
+    <t>10000047</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/358deb00-430f-5bd5-9801-51a5abc63c6b/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四五</t>
+  </si>
+  <si>
+    <t>魚品雑記 并 分科名彙</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b9b7bd0f-5747-657b-1fbc-77914c9d8f85.json</t>
+  </si>
+  <si>
+    <t>b9b7bd0f-5747-657b-1fbc-77914c9d8f85</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b9b7bd0f-5747-657b-1fbc-77914c9d8f85</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/98fe1acc29e98c90d3ce79de613d9e64972b0e9d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520368</t>
+  </si>
+  <si>
+    <t>10000048</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b9b7bd0f-5747-657b-1fbc-77914c9d8f85/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四六</t>
+  </si>
+  <si>
+    <t>越後 并 岩代植物</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5a1e77f8-1363-9bd7-4845-4ede297750b2.json</t>
+  </si>
+  <si>
+    <t>5a1e77f8-1363-9bd7-4845-4ede297750b2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/5a1e77f8-1363-9bd7-4845-4ede297750b2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/31d8637738130fe8bb324eda857bb5739a53a3bf.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520369</t>
+  </si>
+  <si>
+    <t>10000049</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5a1e77f8-1363-9bd7-4845-4ede297750b2/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 甲四七</t>
+  </si>
+  <si>
+    <t>(米国博覧会行見聞博物学上関係ノ件并動物名稿雑集 十六年九月八日綴)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bc2948c7-5c0e-2e44-11b3-cb3027434fe8.json</t>
+  </si>
+  <si>
+    <t>bc2948c7-5c0e-2e44-11b3-cb3027434fe8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/bc2948c7-5c0e-2e44-11b3-cb3027434fe8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d51a1e2da505f6e5d72a83e4ffa3f3f5666a1153.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520370</t>
+  </si>
+  <si>
+    <t>10000050</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/bc2948c7-5c0e-2e44-11b3-cb3027434fe8/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙一</t>
+  </si>
+  <si>
+    <t>根菜類、葉菜類(甲七、八ニ出ル)</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/34bc32fa-660c-7f4a-54a4-0b0cf714847f.json</t>
+  </si>
+  <si>
+    <t>34bc32fa-660c-7f4a-54a4-0b0cf714847f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/34bc32fa-660c-7f4a-54a4-0b0cf714847f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cd6e2f9d21ce5f3231c0f22a3efd084737b23fca.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520371</t>
+  </si>
+  <si>
+    <t>10000051</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/34bc32fa-660c-7f4a-54a4-0b0cf714847f/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙二</t>
+  </si>
+  <si>
+    <t>蓏菜類(甲九ニ出ル)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/213b7472-7747-29bf-7684-5aafba412629.json</t>
+  </si>
+  <si>
+    <t>213b7472-7747-29bf-7684-5aafba412629</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/213b7472-7747-29bf-7684-5aafba412629</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2c080d51df57073603bf361fff493b3cac64e6ab.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520372</t>
+  </si>
+  <si>
+    <t>10000052</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/213b7472-7747-29bf-7684-5aafba412629/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙三</t>
+  </si>
+  <si>
+    <t>木材類(甲十九ニ出)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d1c71503-5c30-a1fc-9ab2-3a677a526f83.json</t>
+  </si>
+  <si>
+    <t>d1c71503-5c30-a1fc-9ab2-3a677a526f83</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/d1c71503-5c30-a1fc-9ab2-3a677a526f83</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0a92db7e2dab10d3617c10f403c3963852448c69.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520373</t>
+  </si>
+  <si>
+    <t>10000053</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d1c71503-5c30-a1fc-9ab2-3a677a526f83/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙四</t>
+  </si>
+  <si>
+    <t>竹類、スダレヨシ(甲二十ニ出)</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ae824634-481b-2f7f-12cd-a8bb9d534e9d.json</t>
+  </si>
+  <si>
+    <t>ae824634-481b-2f7f-12cd-a8bb9d534e9d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/ae824634-481b-2f7f-12cd-a8bb9d534e9d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/661a7f70cd86a34005fbad9410ab0722eb499289.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520374</t>
+  </si>
+  <si>
+    <t>10000054</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ae824634-481b-2f7f-12cd-a8bb9d534e9d/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙六</t>
+  </si>
+  <si>
+    <t>軟体類(甲三十二、三十三ニ出)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5d0a571c-6f32-0eb0-9ac2-150061c96e5d.json</t>
+  </si>
+  <si>
+    <t>5d0a571c-6f32-0eb0-9ac2-150061c96e5d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/5d0a571c-6f32-0eb0-9ac2-150061c96e5d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4197c438dd99c0bafc5f96884a39132683b9c267.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520375</t>
+  </si>
+  <si>
+    <t>10000055</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5d0a571c-6f32-0eb0-9ac2-150061c96e5d/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙七</t>
+  </si>
+  <si>
+    <t>魚類(甲三十五、六、七ニ出)</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e98093be-464a-7b5d-9f09-f18e87ec0ba8.json</t>
+  </si>
+  <si>
+    <t>e98093be-464a-7b5d-9f09-f18e87ec0ba8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/e98093be-464a-7b5d-9f09-f18e87ec0ba8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c9e7ffefe6978b4275e3214e0a41fb23ac59ebb0.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520376</t>
+  </si>
+  <si>
+    <t>10000056</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e98093be-464a-7b5d-9f09-f18e87ec0ba8/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙八</t>
+  </si>
+  <si>
+    <t>海藻類(甲三八昆布、三九苔藻、四十海藻)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c754cf3e-5868-9efc-22b4-91de8e7e4b3a.json</t>
+  </si>
+  <si>
+    <t>c754cf3e-5868-9efc-22b4-91de8e7e4b3a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/c754cf3e-5868-9efc-22b4-91de8e7e4b3a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9fa7c44ee6784ca426ad823d007721f19deed607.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520377</t>
+  </si>
+  <si>
+    <t>10000057</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c754cf3e-5868-9efc-22b4-91de8e7e4b3a/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙九</t>
+  </si>
+  <si>
+    <t>根菜類 甲八ニモ出ル</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a19c6657-822b-6e67-167a-ae58a8f30055.json</t>
+  </si>
+  <si>
+    <t>a19c6657-822b-6e67-167a-ae58a8f30055</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/a19c6657-822b-6e67-167a-ae58a8f30055</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/be0bfdf0bc12d69157e47795223af323d6ef4ff1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520378</t>
+  </si>
+  <si>
+    <t>10000058</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a19c6657-822b-6e67-167a-ae58a8f30055/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙十</t>
+  </si>
+  <si>
+    <t>小笠原島植物</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4a8842ca-1e57-8cda-9b6b-0c9a707e77b3.json</t>
+  </si>
+  <si>
+    <t>4a8842ca-1e57-8cda-9b6b-0c9a707e77b3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4a8842ca-1e57-8cda-9b6b-0c9a707e77b3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0a175939537584610b511f3e1bdb0605db4b6fcf.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520379</t>
+  </si>
+  <si>
+    <t>10000059</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4a8842ca-1e57-8cda-9b6b-0c9a707e77b3/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙十一</t>
+  </si>
+  <si>
+    <t>奥青輔清國水産</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/169fb70e-24f8-4b77-79e5-ba35a01b090f.json</t>
+  </si>
+  <si>
+    <t>169fb70e-24f8-4b77-79e5-ba35a01b090f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/169fb70e-24f8-4b77-79e5-ba35a01b090f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cb50777a76dcdb2534f958de7a340dc002e5f48c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520380</t>
+  </si>
+  <si>
+    <t>10000060</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/169fb70e-24f8-4b77-79e5-ba35a01b090f/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙十二</t>
+  </si>
+  <si>
+    <t>アンペラ・蒲莞</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f49e2480-26e2-4806-a72e-4d4f844392eb.json</t>
+  </si>
+  <si>
+    <t>f49e2480-26e2-4806-a72e-4d4f844392eb</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/f49e2480-26e2-4806-a72e-4d4f844392eb</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eb1e43004eaa159b97b2d981b589eda32172136d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520381</t>
+  </si>
+  <si>
+    <t>10000061</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/f49e2480-26e2-4806-a72e-4d4f844392eb/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙十三</t>
+  </si>
+  <si>
+    <t>沖縄物産一斑</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5cc53a1b-7bf2-a295-5d50-a3326b175e23.json</t>
+  </si>
+  <si>
+    <t>5cc53a1b-7bf2-a295-5d50-a3326b175e23</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/5cc53a1b-7bf2-a295-5d50-a3326b175e23</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/982f112f423eb6f5b995db2c9e8dbec19be94118.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520382</t>
+  </si>
+  <si>
+    <t>10000062</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5cc53a1b-7bf2-a295-5d50-a3326b175e23/manifest</t>
+  </si>
+  <si>
+    <t>物産雑説 乙十四</t>
+  </si>
+  <si>
+    <t>文部省出品水産動物解説</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/3eec9dd0-8028-0f1f-9efb-8842ce601e3c.json</t>
+  </si>
+  <si>
+    <t>3eec9dd0-8028-0f1f-9efb-8842ce601e3c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/3eec9dd0-8028-0f1f-9efb-8842ce601e3c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26b917e82e2d6d2c613c7b297b99a75abf7cc857.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520383</t>
+  </si>
+  <si>
+    <t>10000063</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/3eec9dd0-8028-0f1f-9efb-8842ce601e3c/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫目録</t>
+  </si>
+  <si>
+    <t>A00:5765</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/77ca0ff5-24fb-5c9d-5bd2-42fbad0057a3.json</t>
+  </si>
+  <si>
+    <t>77ca0ff5-24fb-5c9d-5bd2-42fbad0057a3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/77ca0ff5-24fb-5c9d-5bd2-42fbad0057a3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/50ffdb8b11d46179b1830a62d40c39b6cc50d1d7.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520384</t>
+  </si>
+  <si>
+    <t>10000064</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/77ca0ff5-24fb-5c9d-5bd2-42fbad0057a3/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫総目録 全</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f81aab7d-340c-92c9-3036-7e5aadd3662f.json</t>
+  </si>
+  <si>
+    <t>f81aab7d-340c-92c9-3036-7e5aadd3662f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/f81aab7d-340c-92c9-3036-7e5aadd3662f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7909d829d899779cec7b0e30bce2e57e39593734.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520385</t>
+  </si>
+  <si>
+    <t>10000065</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/f81aab7d-340c-92c9-3036-7e5aadd3662f/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫目録 全</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/137ef1be-8891-71c5-3976-ab354aeb40b7.json</t>
+  </si>
+  <si>
+    <t>137ef1be-8891-71c5-3976-ab354aeb40b7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/137ef1be-8891-71c5-3976-ab354aeb40b7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4e5e809b8a1ff10eeb3c9def24efd21b498ee7e5.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520386</t>
+  </si>
+  <si>
+    <t>10000066</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/137ef1be-8891-71c5-3976-ab354aeb40b7/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲一</t>
+  </si>
+  <si>
+    <t>獣類、鳥類、爬虫類、柔軟類、多肢類、多節類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ad4c7237-85bd-35b6-95f3-c4d04a9f5ef9.json</t>
+  </si>
+  <si>
+    <t>ad4c7237-85bd-35b6-95f3-c4d04a9f5ef9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/ad4c7237-85bd-35b6-95f3-c4d04a9f5ef9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/13cfb26b9fc8ccd86e2a4dbf9853abcdbd37c1e0.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520387</t>
+  </si>
+  <si>
+    <t>10000067</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ad4c7237-85bd-35b6-95f3-c4d04a9f5ef9/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲二</t>
+  </si>
+  <si>
+    <t>魚類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/10720b31-0dfd-11dc-253f-7f59bf4d9850.json</t>
+  </si>
+  <si>
+    <t>10720b31-0dfd-11dc-253f-7f59bf4d9850</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/10720b31-0dfd-11dc-253f-7f59bf4d9850</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2b3e0d0d7c3de770224931bcd9480f4ee4dfb9d9.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520388</t>
+  </si>
+  <si>
+    <t>10000068</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/10720b31-0dfd-11dc-253f-7f59bf4d9850/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲三</t>
+  </si>
+  <si>
+    <t>動物雑類</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/20c2a966-07ab-8f5c-198b-c530ba52a659.json</t>
+  </si>
+  <si>
+    <t>20c2a966-07ab-8f5c-198b-c530ba52a659</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/20c2a966-07ab-8f5c-198b-c530ba52a659</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/84f541511f497b2b7812362f2cfb51090489b827.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520389</t>
+  </si>
+  <si>
+    <t>10000069</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/20c2a966-07ab-8f5c-198b-c530ba52a659/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲四</t>
+  </si>
+  <si>
+    <t>穀菽類、葉菜及花菜類、根菜類、蓏菜類、菌蕈類、香辛類、澱粉類、畜食類、清娯類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/73fa4c07-92de-94a6-58e1-db1b813d9a34.json</t>
+  </si>
+  <si>
+    <t>73fa4c07-92de-94a6-58e1-db1b813d9a34</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/73fa4c07-92de-94a6-58e1-db1b813d9a34</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b00eafac20cc5e099c18632462a8ecd017da20fc.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520390</t>
+  </si>
+  <si>
+    <t>10000070</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/73fa4c07-92de-94a6-58e1-db1b813d9a34/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲五</t>
+  </si>
+  <si>
+    <t>各用類、油臘類、繊維類、製紙類、染色類、薬用類、有毒類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1ce4ae09-84f4-0152-89b0-bd3264603d0c.json</t>
+  </si>
+  <si>
+    <t>1ce4ae09-84f4-0152-89b0-bd3264603d0c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/1ce4ae09-84f4-0152-89b0-bd3264603d0c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f9ccd0fa6550a542918f6b89bceebc32ea00e86f.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520391</t>
+  </si>
+  <si>
+    <t>10000071</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/1ce4ae09-84f4-0152-89b0-bd3264603d0c/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲六</t>
+  </si>
+  <si>
+    <t>水草類、海藻類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/982d5c68-0f23-7707-65a8-1606c0c01bd1.json</t>
+  </si>
+  <si>
+    <t>982d5c68-0f23-7707-65a8-1606c0c01bd1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/982d5c68-0f23-7707-65a8-1606c0c01bd1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2e16886d9faaf6eb2873243653e83ae5d9ac6c75.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520392</t>
+  </si>
+  <si>
+    <t>10000072</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/982d5c68-0f23-7707-65a8-1606c0c01bd1/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲七</t>
+  </si>
+  <si>
+    <t>菓物類</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ad960a92-79c1-2a22-a370-83f1c21e7700.json</t>
+  </si>
+  <si>
+    <t>ad960a92-79c1-2a22-a370-83f1c21e7700</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/ad960a92-79c1-2a22-a370-83f1c21e7700</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c5a61a2790fef946f824041cf6b8304eb0d8f313.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520393</t>
+  </si>
+  <si>
+    <t>10000073</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ad960a92-79c1-2a22-a370-83f1c21e7700/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲八</t>
+  </si>
+  <si>
+    <t>木竹類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6a585da6-a60b-01fa-8786-1188972d771b.json</t>
+  </si>
+  <si>
+    <t>6a585da6-a60b-01fa-8786-1188972d771b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/6a585da6-a60b-01fa-8786-1188972d771b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1448fdda3de5c1b63f233aca28106f510ceb7fbb.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520394</t>
+  </si>
+  <si>
+    <t>10000074</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/6a585da6-a60b-01fa-8786-1188972d771b/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲九</t>
+  </si>
+  <si>
+    <t>落葉樹、常緑樹</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/eb0b2915-7869-5a65-25cc-ee1069793946.json</t>
+  </si>
+  <si>
+    <t>eb0b2915-7869-5a65-25cc-ee1069793946</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/eb0b2915-7869-5a65-25cc-ee1069793946</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ec65a8ea924cccd8bc9ba2118fc2ed3730426262.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520395</t>
+  </si>
+  <si>
+    <t>10000075</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/eb0b2915-7869-5a65-25cc-ee1069793946/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十</t>
+  </si>
+  <si>
+    <t>観賞物</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2e4e3634-3ac9-090e-2361-4302b50b9c95.json</t>
+  </si>
+  <si>
+    <t>2e4e3634-3ac9-090e-2361-4302b50b9c95</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/2e4e3634-3ac9-090e-2361-4302b50b9c95</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/43f8d7c8f28e424132b2e8188e6567b8f51665a4.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520396</t>
+  </si>
+  <si>
+    <t>10000076</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/2e4e3634-3ac9-090e-2361-4302b50b9c95/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十一</t>
+  </si>
+  <si>
+    <t>植物雑類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/760d2c43-7cb5-130a-51ba-14353e5745f2.json</t>
+  </si>
+  <si>
+    <t>760d2c43-7cb5-130a-51ba-14353e5745f2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/760d2c43-7cb5-130a-51ba-14353e5745f2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0c39886683c4ba90720cb574bc808a9a89fdd0a8.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520397</t>
+  </si>
+  <si>
+    <t>10000077</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/760d2c43-7cb5-130a-51ba-14353e5745f2/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十二</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/eff3cb3a-795d-31b5-8f02-f89a195d8c3f.json</t>
+  </si>
+  <si>
+    <t>eff3cb3a-795d-31b5-8f02-f89a195d8c3f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/eff3cb3a-795d-31b5-8f02-f89a195d8c3f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3de0b110c52e41c801f1c9c3980b9f7308953a0b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520398</t>
+  </si>
+  <si>
+    <t>10000078</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/eff3cb3a-795d-31b5-8f02-f89a195d8c3f/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十三</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b3fd2baf-600b-57aa-2ac6-bc1fc593a0f4.json</t>
+  </si>
+  <si>
+    <t>b3fd2baf-600b-57aa-2ac6-bc1fc593a0f4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b3fd2baf-600b-57aa-2ac6-bc1fc593a0f4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/db49cb03c99acafcb4dd9905a44a924da04d694d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520399</t>
+  </si>
+  <si>
+    <t>10000079</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b3fd2baf-600b-57aa-2ac6-bc1fc593a0f4/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十四</t>
+  </si>
+  <si>
+    <t>鉱物類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/045bba6a-3c5d-1ef0-6318-85cfa7df578b.json</t>
+  </si>
+  <si>
+    <t>045bba6a-3c5d-1ef0-6318-85cfa7df578b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/045bba6a-3c5d-1ef0-6318-85cfa7df578b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/99500f3b93072f4dc3fd264e14c976e07de75295.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520400</t>
+  </si>
+  <si>
+    <t>10000080</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/045bba6a-3c5d-1ef0-6318-85cfa7df578b/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十五</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8ae3d0c3-a1e5-1fef-79ef-77babdc2294e.json</t>
+  </si>
+  <si>
+    <t>8ae3d0c3-a1e5-1fef-79ef-77babdc2294e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/8ae3d0c3-a1e5-1fef-79ef-77babdc2294e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ade96e1aae7e183fc950ba2b55fce0ac91f731da.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520401</t>
+  </si>
+  <si>
+    <t>10000081</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/8ae3d0c3-a1e5-1fef-79ef-77babdc2294e/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十六</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e1ebd5a1-6a83-36fd-46b9-9599737a1d5b.json</t>
+  </si>
+  <si>
+    <t>e1ebd5a1-6a83-36fd-46b9-9599737a1d5b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/e1ebd5a1-6a83-36fd-46b9-9599737a1d5b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7b67209bca795743aa356c72f54e27dd15601a89.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520402</t>
+  </si>
+  <si>
+    <t>10000082</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e1ebd5a1-6a83-36fd-46b9-9599737a1d5b/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十七</t>
+  </si>
+  <si>
+    <t>小笠原島、沖縄県、北海道</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/baa2ce62-36c4-7c46-3eb1-4e3c414934cd.json</t>
+  </si>
+  <si>
+    <t>baa2ce62-36c4-7c46-3eb1-4e3c414934cd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/baa2ce62-36c4-7c46-3eb1-4e3c414934cd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/85f98b04939fd95dc7dabca6ed38d535c7c8ec8d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520403</t>
+  </si>
+  <si>
+    <t>10000083</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/baa2ce62-36c4-7c46-3eb1-4e3c414934cd/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十八</t>
+  </si>
+  <si>
+    <t>清國朝鮮、瓜哇等</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2532f6a6-14b4-211d-80d1-5f48b3a25ea8.json</t>
+  </si>
+  <si>
+    <t>2532f6a6-14b4-211d-80d1-5f48b3a25ea8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/2532f6a6-14b4-211d-80d1-5f48b3a25ea8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e76d09b00394dfd166af810f62a58584b57aa71d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520404</t>
+  </si>
+  <si>
+    <t>10000084</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/2532f6a6-14b4-211d-80d1-5f48b3a25ea8/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲十九</t>
+  </si>
+  <si>
+    <t>西洋其他各国動物及雑類、サボテン考</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4fac08cd-1dd4-1771-6714-7a4e566365b3.json</t>
+  </si>
+  <si>
+    <t>4fac08cd-1dd4-1771-6714-7a4e566365b3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4fac08cd-1dd4-1771-6714-7a4e566365b3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/15fa65c82da5f8cabf919b60d32e2ddb7a7b967e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520405</t>
+  </si>
+  <si>
+    <t>10000085</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4fac08cd-1dd4-1771-6714-7a4e566365b3/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 甲二十</t>
+  </si>
+  <si>
+    <t>西洋其他各国植物類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8688bcf1-1fd9-29f6-15fc-a94718880c98.json</t>
+  </si>
+  <si>
+    <t>8688bcf1-1fd9-29f6-15fc-a94718880c98</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/8688bcf1-1fd9-29f6-15fc-a94718880c98</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/657f36158ba90cbb6985970255a6cabb4d230fd1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520406</t>
+  </si>
+  <si>
+    <t>10000086</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/8688bcf1-1fd9-29f6-15fc-a94718880c98/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙一</t>
+  </si>
+  <si>
+    <t>獣類、鳥類、魚類、爬虫類、柔軟類、多節類、雑部</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/481ca9df-96b8-58e8-04be-2f31fb313c27.json</t>
+  </si>
+  <si>
+    <t>481ca9df-96b8-58e8-04be-2f31fb313c27</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/481ca9df-96b8-58e8-04be-2f31fb313c27</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4f484d8abc4eec1859c67efef4eebe99ee843cfa.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520407</t>
+  </si>
+  <si>
+    <t>10000087</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/481ca9df-96b8-58e8-04be-2f31fb313c27/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙二</t>
+  </si>
+  <si>
+    <t>木竹類、製紙類、繊維類、油類、臘類、清娯類、菓物類、薬草類</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9c8eb8dc-3bf4-302c-1347-ff076aa603c7.json</t>
+  </si>
+  <si>
+    <t>9c8eb8dc-3bf4-302c-1347-ff076aa603c7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/9c8eb8dc-3bf4-302c-1347-ff076aa603c7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/97d3927207b94f02800e89ed63e61cf9aaa484f9.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520408</t>
+  </si>
+  <si>
+    <t>10000088</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/9c8eb8dc-3bf4-302c-1347-ff076aa603c7/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙三</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9b3761e4-697d-6c7c-25a6-dcfc92751248.json</t>
+  </si>
+  <si>
+    <t>9b3761e4-697d-6c7c-25a6-dcfc92751248</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/9b3761e4-697d-6c7c-25a6-dcfc92751248</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/68a18f5b5dc41835cb79df364362a872fc8a80d2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520409</t>
+  </si>
+  <si>
+    <t>10000089</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/9b3761e4-697d-6c7c-25a6-dcfc92751248/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙四</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/897d111f-2e2d-4c5c-3333-8a0d105e7d64.json</t>
+  </si>
+  <si>
+    <t>897d111f-2e2d-4c5c-3333-8a0d105e7d64</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/897d111f-2e2d-4c5c-3333-8a0d105e7d64</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8c0e896109b35984d989ba2590cc7285a672e6b2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520410</t>
+  </si>
+  <si>
+    <t>10000090</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/897d111f-2e2d-4c5c-3333-8a0d105e7d64/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙五</t>
+  </si>
+  <si>
+    <t>各地産物誌及草木諸説等</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/92a9551d-434a-92a0-7a1a-25d4f22d7307.json</t>
+  </si>
+  <si>
+    <t>92a9551d-434a-92a0-7a1a-25d4f22d7307</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/92a9551d-434a-92a0-7a1a-25d4f22d7307</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7dad66a9a8bfb4d9f190ba24c5d7e721a4cae32.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520411</t>
+  </si>
+  <si>
+    <t>10000091</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/92a9551d-434a-92a0-7a1a-25d4f22d7307/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙六</t>
+  </si>
+  <si>
+    <t>諸目録類</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/045fa3ef-0fd4-0bab-2e47-5754bad1044d.json</t>
+  </si>
+  <si>
+    <t>045fa3ef-0fd4-0bab-2e47-5754bad1044d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/045fa3ef-0fd4-0bab-2e47-5754bad1044d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8c4b1399732df87d962864e76810857d4a95d6ad.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520412</t>
+  </si>
+  <si>
+    <t>10000092</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/045fa3ef-0fd4-0bab-2e47-5754bad1044d/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙七</t>
+  </si>
+  <si>
+    <t>明治十年内国勧業博覧会出品目録、明治十一年仏国博覧会出品目録</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4e903b4f-6a1f-4a7b-5057-428c09584d4c.json</t>
+  </si>
+  <si>
+    <t>4e903b4f-6a1f-4a7b-5057-428c09584d4c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/4e903b4f-6a1f-4a7b-5057-428c09584d4c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ac840e9e5afaac50fa4d97d3d389525e5103ef31.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520413</t>
+  </si>
+  <si>
+    <t>10000093</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4e903b4f-6a1f-4a7b-5057-428c09584d4c/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙八</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/89d30187-3f37-a621-2e6d-0d46824032d2.json</t>
+  </si>
+  <si>
+    <t>89d30187-3f37-a621-2e6d-0d46824032d2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/89d30187-3f37-a621-2e6d-0d46824032d2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2b91e59620ac22a61b5f9696fdd792b3bfc447d3.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520414</t>
+  </si>
+  <si>
+    <t>10000094</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/89d30187-3f37-a621-2e6d-0d46824032d2/manifest</t>
+  </si>
+  <si>
+    <t>物産宝庫 乙九</t>
+  </si>
+  <si>
+    <t>(四樹集説)</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b67c8352-1a31-6d81-120d-2ab2ca8e86b8.json</t>
+  </si>
+  <si>
+    <t>b67c8352-1a31-6d81-120d-2ab2ca8e86b8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/tanaka/document/b67c8352-1a31-6d81-120d-2ab2ca8e86b8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/379d8b07bc62068afc2b6c566bc450ccfc6e420b.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/520415</t>
+  </si>
+  <si>
+    <t>10000095</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b67c8352-1a31-6d81-120d-2ab2ca8e86b8/manifest</t>
   </si>
 </sst>
 </file>
@@ -3776,7 +6440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,7 +6617,7 @@
         <v>53</v>
       </c>
       <c r="AB2" t="n">
-        <v>14003</v>
+        <v>27201</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -10812,6 +13476,6266 @@
         <v>335</v>
       </c>
     </row>
+    <row r="104" spans="1:28">
+      <c r="A104" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="s"/>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G104" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N104" t="s">
+        <v>64</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P104" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>67</v>
+      </c>
+      <c r="R104" t="s">
+        <v>68</v>
+      </c>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s">
+        <v>69</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1151</v>
+      </c>
+      <c r="V104" t="s"/>
+      <c r="W104" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
+      <c r="Z104" t="s"/>
+      <c r="AA104" t="s"/>
+      <c r="AB104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="s"/>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G105" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M105" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N105" t="s">
+        <v>64</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>67</v>
+      </c>
+      <c r="R105" t="s">
+        <v>68</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s">
+        <v>69</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V105" t="s"/>
+      <c r="W105" t="s">
+        <v>1161</v>
+      </c>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+      <c r="Z105" t="s"/>
+      <c r="AA105" t="s"/>
+      <c r="AB105" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G106" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" t="s">
+        <v>870</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N106" t="s">
+        <v>64</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>67</v>
+      </c>
+      <c r="R106" t="s">
+        <v>68</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s">
+        <v>69</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V106" t="s"/>
+      <c r="W106" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+      <c r="Z106" t="s"/>
+      <c r="AA106" t="s"/>
+      <c r="AB106" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G107" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" t="s">
+        <v>751</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N107" t="s">
+        <v>64</v>
+      </c>
+      <c r="O107" t="s">
+        <v>1176</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>67</v>
+      </c>
+      <c r="R107" t="s">
+        <v>68</v>
+      </c>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s">
+        <v>69</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V107" t="s"/>
+      <c r="W107" t="s">
+        <v>1179</v>
+      </c>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s"/>
+      <c r="Z107" t="s"/>
+      <c r="AA107" t="s"/>
+      <c r="AB107" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N108" t="s">
+        <v>64</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1186</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>67</v>
+      </c>
+      <c r="R108" t="s">
+        <v>68</v>
+      </c>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s">
+        <v>69</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1188</v>
+      </c>
+      <c r="V108" t="s"/>
+      <c r="W108" t="s">
+        <v>1189</v>
+      </c>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s"/>
+      <c r="Z108" t="s"/>
+      <c r="AA108" t="s"/>
+      <c r="AB108" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E109" t="s"/>
+      <c r="F109" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N109" t="s">
+        <v>64</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P109" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>67</v>
+      </c>
+      <c r="R109" t="s">
+        <v>68</v>
+      </c>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s">
+        <v>69</v>
+      </c>
+      <c r="U109" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V109" t="s"/>
+      <c r="W109" t="s">
+        <v>1199</v>
+      </c>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s"/>
+      <c r="Z109" t="s"/>
+      <c r="AA109" t="s"/>
+      <c r="AB109" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E110" t="s"/>
+      <c r="F110" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>64</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>67</v>
+      </c>
+      <c r="R110" t="s">
+        <v>68</v>
+      </c>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s">
+        <v>69</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1208</v>
+      </c>
+      <c r="V110" t="s"/>
+      <c r="W110" t="s">
+        <v>1209</v>
+      </c>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s"/>
+      <c r="Z110" t="s"/>
+      <c r="AA110" t="s"/>
+      <c r="AB110" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E111" t="s"/>
+      <c r="F111" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s">
+        <v>321</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N111" t="s">
+        <v>64</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>67</v>
+      </c>
+      <c r="R111" t="s">
+        <v>68</v>
+      </c>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s">
+        <v>69</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1217</v>
+      </c>
+      <c r="V111" t="s"/>
+      <c r="W111" t="s">
+        <v>1218</v>
+      </c>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+      <c r="Z111" t="s"/>
+      <c r="AA111" t="s"/>
+      <c r="AB111" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E112" t="s"/>
+      <c r="F112" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" t="s">
+        <v>234</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N112" t="s">
+        <v>64</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>67</v>
+      </c>
+      <c r="R112" t="s">
+        <v>68</v>
+      </c>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s">
+        <v>69</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V112" t="s"/>
+      <c r="W112" t="s">
+        <v>1227</v>
+      </c>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s"/>
+      <c r="Z112" t="s"/>
+      <c r="AA112" t="s"/>
+      <c r="AB112" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E113" t="s"/>
+      <c r="F113" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N113" t="s">
+        <v>64</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>67</v>
+      </c>
+      <c r="R113" t="s">
+        <v>68</v>
+      </c>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s">
+        <v>69</v>
+      </c>
+      <c r="U113" t="s">
+        <v>1236</v>
+      </c>
+      <c r="V113" t="s"/>
+      <c r="W113" t="s">
+        <v>1237</v>
+      </c>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s"/>
+      <c r="Z113" t="s"/>
+      <c r="AA113" t="s"/>
+      <c r="AB113" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E114" t="s"/>
+      <c r="F114" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" t="s">
+        <v>805</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N114" t="s">
+        <v>64</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>67</v>
+      </c>
+      <c r="R114" t="s">
+        <v>68</v>
+      </c>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s">
+        <v>69</v>
+      </c>
+      <c r="U114" t="s">
+        <v>1245</v>
+      </c>
+      <c r="V114" t="s"/>
+      <c r="W114" t="s">
+        <v>1246</v>
+      </c>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s"/>
+      <c r="Z114" t="s"/>
+      <c r="AA114" t="s"/>
+      <c r="AB114" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E115" t="s"/>
+      <c r="F115" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N115" t="s">
+        <v>64</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>67</v>
+      </c>
+      <c r="R115" t="s">
+        <v>68</v>
+      </c>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s">
+        <v>69</v>
+      </c>
+      <c r="U115" t="s">
+        <v>1255</v>
+      </c>
+      <c r="V115" t="s"/>
+      <c r="W115" t="s">
+        <v>1256</v>
+      </c>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s"/>
+      <c r="Z115" t="s"/>
+      <c r="AA115" t="s"/>
+      <c r="AB115" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E116" t="s"/>
+      <c r="F116" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N116" t="s">
+        <v>64</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>67</v>
+      </c>
+      <c r="R116" t="s">
+        <v>68</v>
+      </c>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s">
+        <v>69</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V116" t="s"/>
+      <c r="W116" t="s">
+        <v>1266</v>
+      </c>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s"/>
+      <c r="Z116" t="s"/>
+      <c r="AA116" t="s"/>
+      <c r="AB116" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E117" t="s"/>
+      <c r="F117" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G117" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M117" t="s">
+        <v>1272</v>
+      </c>
+      <c r="N117" t="s">
+        <v>64</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1273</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>67</v>
+      </c>
+      <c r="R117" t="s">
+        <v>68</v>
+      </c>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s">
+        <v>69</v>
+      </c>
+      <c r="U117" t="s">
+        <v>1275</v>
+      </c>
+      <c r="V117" t="s"/>
+      <c r="W117" t="s">
+        <v>1276</v>
+      </c>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s"/>
+      <c r="Z117" t="s"/>
+      <c r="AA117" t="s"/>
+      <c r="AB117" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E118" t="s"/>
+      <c r="F118" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N118" t="s">
+        <v>64</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>67</v>
+      </c>
+      <c r="R118" t="s">
+        <v>68</v>
+      </c>
+      <c r="S118" t="s"/>
+      <c r="T118" t="s">
+        <v>69</v>
+      </c>
+      <c r="U118" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V118" t="s"/>
+      <c r="W118" t="s">
+        <v>1286</v>
+      </c>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s"/>
+      <c r="Z118" t="s"/>
+      <c r="AA118" t="s"/>
+      <c r="AB118" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E119" t="s"/>
+      <c r="F119" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G119" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N119" t="s">
+        <v>64</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>67</v>
+      </c>
+      <c r="R119" t="s">
+        <v>68</v>
+      </c>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s">
+        <v>69</v>
+      </c>
+      <c r="U119" t="s">
+        <v>1295</v>
+      </c>
+      <c r="V119" t="s"/>
+      <c r="W119" t="s">
+        <v>1296</v>
+      </c>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s"/>
+      <c r="Z119" t="s"/>
+      <c r="AA119" t="s"/>
+      <c r="AB119" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E120" t="s"/>
+      <c r="F120" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G120" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N120" t="s">
+        <v>64</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>67</v>
+      </c>
+      <c r="R120" t="s">
+        <v>68</v>
+      </c>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s">
+        <v>69</v>
+      </c>
+      <c r="U120" t="s">
+        <v>1305</v>
+      </c>
+      <c r="V120" t="s"/>
+      <c r="W120" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s"/>
+      <c r="Z120" t="s"/>
+      <c r="AA120" t="s"/>
+      <c r="AB120" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E121" t="s"/>
+      <c r="F121" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G121" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" t="s">
+        <v>751</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N121" t="s">
+        <v>64</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>67</v>
+      </c>
+      <c r="R121" t="s">
+        <v>68</v>
+      </c>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s">
+        <v>69</v>
+      </c>
+      <c r="U121" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V121" t="s"/>
+      <c r="W121" t="s">
+        <v>1315</v>
+      </c>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s"/>
+      <c r="Z121" t="s"/>
+      <c r="AA121" t="s"/>
+      <c r="AB121" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E122" t="s"/>
+      <c r="F122" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G122" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N122" t="s">
+        <v>64</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>67</v>
+      </c>
+      <c r="R122" t="s">
+        <v>68</v>
+      </c>
+      <c r="S122" t="s"/>
+      <c r="T122" t="s">
+        <v>69</v>
+      </c>
+      <c r="U122" t="s">
+        <v>1324</v>
+      </c>
+      <c r="V122" t="s"/>
+      <c r="W122" t="s">
+        <v>1325</v>
+      </c>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s"/>
+      <c r="Z122" t="s"/>
+      <c r="AA122" t="s"/>
+      <c r="AB122" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E123" t="s"/>
+      <c r="F123" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G123" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" t="s">
+        <v>431</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N123" t="s">
+        <v>64</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1331</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>67</v>
+      </c>
+      <c r="R123" t="s">
+        <v>68</v>
+      </c>
+      <c r="S123" t="s"/>
+      <c r="T123" t="s">
+        <v>69</v>
+      </c>
+      <c r="U123" t="s">
+        <v>1333</v>
+      </c>
+      <c r="V123" t="s"/>
+      <c r="W123" t="s">
+        <v>1334</v>
+      </c>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s"/>
+      <c r="Z123" t="s"/>
+      <c r="AA123" t="s"/>
+      <c r="AB123" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E124" t="s"/>
+      <c r="F124" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G124" t="s">
+        <v>58</v>
+      </c>
+      <c r="H124" t="s">
+        <v>277</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N124" t="s">
+        <v>64</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>67</v>
+      </c>
+      <c r="R124" t="s">
+        <v>68</v>
+      </c>
+      <c r="S124" t="s"/>
+      <c r="T124" t="s">
+        <v>69</v>
+      </c>
+      <c r="U124" t="s">
+        <v>1342</v>
+      </c>
+      <c r="V124" t="s"/>
+      <c r="W124" t="s">
+        <v>1343</v>
+      </c>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s"/>
+      <c r="Z124" t="s"/>
+      <c r="AA124" t="s"/>
+      <c r="AB124" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E125" t="s"/>
+      <c r="F125" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G125" t="s">
+        <v>58</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N125" t="s">
+        <v>64</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>67</v>
+      </c>
+      <c r="R125" t="s">
+        <v>68</v>
+      </c>
+      <c r="S125" t="s"/>
+      <c r="T125" t="s">
+        <v>69</v>
+      </c>
+      <c r="U125" t="s">
+        <v>1352</v>
+      </c>
+      <c r="V125" t="s"/>
+      <c r="W125" t="s">
+        <v>1353</v>
+      </c>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s"/>
+      <c r="Z125" t="s"/>
+      <c r="AA125" t="s"/>
+      <c r="AB125" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E126" t="s"/>
+      <c r="F126" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" t="s">
+        <v>740</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N126" t="s">
+        <v>64</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1359</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>67</v>
+      </c>
+      <c r="R126" t="s">
+        <v>68</v>
+      </c>
+      <c r="S126" t="s"/>
+      <c r="T126" t="s">
+        <v>69</v>
+      </c>
+      <c r="U126" t="s">
+        <v>1361</v>
+      </c>
+      <c r="V126" t="s"/>
+      <c r="W126" t="s">
+        <v>1362</v>
+      </c>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s"/>
+      <c r="Z126" t="s"/>
+      <c r="AA126" t="s"/>
+      <c r="AB126" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B127" t="s"/>
+      <c r="C127" t="s"/>
+      <c r="D127" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E127" t="s"/>
+      <c r="F127" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G127" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N127" t="s">
+        <v>64</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>67</v>
+      </c>
+      <c r="R127" t="s">
+        <v>68</v>
+      </c>
+      <c r="S127" t="s"/>
+      <c r="T127" t="s">
+        <v>69</v>
+      </c>
+      <c r="U127" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V127" t="s"/>
+      <c r="W127" t="s">
+        <v>1372</v>
+      </c>
+      <c r="X127" t="s"/>
+      <c r="Y127" t="s"/>
+      <c r="Z127" t="s"/>
+      <c r="AA127" t="s"/>
+      <c r="AB127" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B128" t="s"/>
+      <c r="C128" t="s"/>
+      <c r="D128" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E128" t="s"/>
+      <c r="F128" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G128" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N128" t="s">
+        <v>64</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>67</v>
+      </c>
+      <c r="R128" t="s">
+        <v>68</v>
+      </c>
+      <c r="S128" t="s"/>
+      <c r="T128" t="s">
+        <v>69</v>
+      </c>
+      <c r="U128" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V128" t="s"/>
+      <c r="W128" t="s">
+        <v>1382</v>
+      </c>
+      <c r="X128" t="s"/>
+      <c r="Y128" t="s"/>
+      <c r="Z128" t="s"/>
+      <c r="AA128" t="s"/>
+      <c r="AB128" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B129" t="s"/>
+      <c r="C129" t="s"/>
+      <c r="D129" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E129" t="s"/>
+      <c r="F129" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" t="s">
+        <v>676</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N129" t="s">
+        <v>64</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>67</v>
+      </c>
+      <c r="R129" t="s">
+        <v>68</v>
+      </c>
+      <c r="S129" t="s"/>
+      <c r="T129" t="s">
+        <v>69</v>
+      </c>
+      <c r="U129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="V129" t="s"/>
+      <c r="W129" t="s">
+        <v>1391</v>
+      </c>
+      <c r="X129" t="s"/>
+      <c r="Y129" t="s"/>
+      <c r="Z129" t="s"/>
+      <c r="AA129" t="s"/>
+      <c r="AB129" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B130" t="s"/>
+      <c r="C130" t="s"/>
+      <c r="D130" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E130" t="s"/>
+      <c r="F130" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N130" t="s">
+        <v>64</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1398</v>
+      </c>
+      <c r="P130" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>67</v>
+      </c>
+      <c r="R130" t="s">
+        <v>68</v>
+      </c>
+      <c r="S130" t="s"/>
+      <c r="T130" t="s">
+        <v>69</v>
+      </c>
+      <c r="U130" t="s">
+        <v>1400</v>
+      </c>
+      <c r="V130" t="s"/>
+      <c r="W130" t="s">
+        <v>1401</v>
+      </c>
+      <c r="X130" t="s"/>
+      <c r="Y130" t="s"/>
+      <c r="Z130" t="s"/>
+      <c r="AA130" t="s"/>
+      <c r="AB130" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B131" t="s"/>
+      <c r="C131" t="s"/>
+      <c r="D131" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E131" t="s"/>
+      <c r="F131" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G131" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1406</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N131" t="s">
+        <v>64</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1408</v>
+      </c>
+      <c r="P131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>67</v>
+      </c>
+      <c r="R131" t="s">
+        <v>68</v>
+      </c>
+      <c r="S131" t="s"/>
+      <c r="T131" t="s">
+        <v>69</v>
+      </c>
+      <c r="U131" t="s">
+        <v>1410</v>
+      </c>
+      <c r="V131" t="s"/>
+      <c r="W131" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X131" t="s"/>
+      <c r="Y131" t="s"/>
+      <c r="Z131" t="s"/>
+      <c r="AA131" t="s"/>
+      <c r="AB131" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B132" t="s"/>
+      <c r="C132" t="s"/>
+      <c r="D132" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E132" t="s"/>
+      <c r="F132" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G132" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1416</v>
+      </c>
+      <c r="N132" t="s">
+        <v>64</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1417</v>
+      </c>
+      <c r="P132" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>67</v>
+      </c>
+      <c r="R132" t="s">
+        <v>68</v>
+      </c>
+      <c r="S132" t="s"/>
+      <c r="T132" t="s">
+        <v>69</v>
+      </c>
+      <c r="U132" t="s">
+        <v>1419</v>
+      </c>
+      <c r="V132" t="s"/>
+      <c r="W132" t="s">
+        <v>1420</v>
+      </c>
+      <c r="X132" t="s"/>
+      <c r="Y132" t="s"/>
+      <c r="Z132" t="s"/>
+      <c r="AA132" t="s"/>
+      <c r="AB132" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B133" t="s"/>
+      <c r="C133" t="s"/>
+      <c r="D133" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E133" t="s"/>
+      <c r="F133" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G133" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" t="s">
+        <v>288</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N133" t="s">
+        <v>64</v>
+      </c>
+      <c r="O133" t="s">
+        <v>1426</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>67</v>
+      </c>
+      <c r="R133" t="s">
+        <v>68</v>
+      </c>
+      <c r="S133" t="s"/>
+      <c r="T133" t="s">
+        <v>69</v>
+      </c>
+      <c r="U133" t="s">
+        <v>1428</v>
+      </c>
+      <c r="V133" t="s"/>
+      <c r="W133" t="s">
+        <v>1429</v>
+      </c>
+      <c r="X133" t="s"/>
+      <c r="Y133" t="s"/>
+      <c r="Z133" t="s"/>
+      <c r="AA133" t="s"/>
+      <c r="AB133" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B134" t="s"/>
+      <c r="C134" t="s"/>
+      <c r="D134" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E134" t="s"/>
+      <c r="F134" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G134" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N134" t="s">
+        <v>64</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P134" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>67</v>
+      </c>
+      <c r="R134" t="s">
+        <v>68</v>
+      </c>
+      <c r="S134" t="s"/>
+      <c r="T134" t="s">
+        <v>69</v>
+      </c>
+      <c r="U134" t="s">
+        <v>1437</v>
+      </c>
+      <c r="V134" t="s"/>
+      <c r="W134" t="s">
+        <v>1438</v>
+      </c>
+      <c r="X134" t="s"/>
+      <c r="Y134" t="s"/>
+      <c r="Z134" t="s"/>
+      <c r="AA134" t="s"/>
+      <c r="AB134" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B135" t="s"/>
+      <c r="C135" t="s"/>
+      <c r="D135" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E135" t="s"/>
+      <c r="F135" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G135" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M135" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N135" t="s">
+        <v>64</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1445</v>
+      </c>
+      <c r="P135" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>67</v>
+      </c>
+      <c r="R135" t="s">
+        <v>68</v>
+      </c>
+      <c r="S135" t="s"/>
+      <c r="T135" t="s">
+        <v>69</v>
+      </c>
+      <c r="U135" t="s">
+        <v>1447</v>
+      </c>
+      <c r="V135" t="s"/>
+      <c r="W135" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X135" t="s"/>
+      <c r="Y135" t="s"/>
+      <c r="Z135" t="s"/>
+      <c r="AA135" t="s"/>
+      <c r="AB135" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B136" t="s"/>
+      <c r="C136" t="s"/>
+      <c r="D136" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E136" t="s"/>
+      <c r="F136" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G136" t="s">
+        <v>58</v>
+      </c>
+      <c r="H136" t="s">
+        <v>245</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M136" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N136" t="s">
+        <v>64</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>67</v>
+      </c>
+      <c r="R136" t="s">
+        <v>68</v>
+      </c>
+      <c r="S136" t="s"/>
+      <c r="T136" t="s">
+        <v>69</v>
+      </c>
+      <c r="U136" t="s">
+        <v>1456</v>
+      </c>
+      <c r="V136" t="s"/>
+      <c r="W136" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X136" t="s"/>
+      <c r="Y136" t="s"/>
+      <c r="Z136" t="s"/>
+      <c r="AA136" t="s"/>
+      <c r="AB136" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B137" t="s"/>
+      <c r="C137" t="s"/>
+      <c r="D137" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E137" t="s"/>
+      <c r="F137" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M137" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N137" t="s">
+        <v>64</v>
+      </c>
+      <c r="O137" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P137" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>67</v>
+      </c>
+      <c r="R137" t="s">
+        <v>68</v>
+      </c>
+      <c r="S137" t="s"/>
+      <c r="T137" t="s">
+        <v>69</v>
+      </c>
+      <c r="U137" t="s">
+        <v>1466</v>
+      </c>
+      <c r="V137" t="s"/>
+      <c r="W137" t="s">
+        <v>1467</v>
+      </c>
+      <c r="X137" t="s"/>
+      <c r="Y137" t="s"/>
+      <c r="Z137" t="s"/>
+      <c r="AA137" t="s"/>
+      <c r="AB137" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B138" t="s"/>
+      <c r="C138" t="s"/>
+      <c r="D138" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E138" t="s"/>
+      <c r="F138" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G138" t="s">
+        <v>58</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1473</v>
+      </c>
+      <c r="N138" t="s">
+        <v>64</v>
+      </c>
+      <c r="O138" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>67</v>
+      </c>
+      <c r="R138" t="s">
+        <v>68</v>
+      </c>
+      <c r="S138" t="s"/>
+      <c r="T138" t="s">
+        <v>69</v>
+      </c>
+      <c r="U138" t="s">
+        <v>1476</v>
+      </c>
+      <c r="V138" t="s"/>
+      <c r="W138" t="s">
+        <v>1477</v>
+      </c>
+      <c r="X138" t="s"/>
+      <c r="Y138" t="s"/>
+      <c r="Z138" t="s"/>
+      <c r="AA138" t="s"/>
+      <c r="AB138" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B139" t="s"/>
+      <c r="C139" t="s"/>
+      <c r="D139" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E139" t="s"/>
+      <c r="F139" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G139" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N139" t="s">
+        <v>64</v>
+      </c>
+      <c r="O139" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P139" t="s">
+        <v>1485</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>67</v>
+      </c>
+      <c r="R139" t="s">
+        <v>68</v>
+      </c>
+      <c r="S139" t="s"/>
+      <c r="T139" t="s">
+        <v>69</v>
+      </c>
+      <c r="U139" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V139" t="s"/>
+      <c r="W139" t="s">
+        <v>1487</v>
+      </c>
+      <c r="X139" t="s"/>
+      <c r="Y139" t="s"/>
+      <c r="Z139" t="s"/>
+      <c r="AA139" t="s"/>
+      <c r="AB139" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B140" t="s"/>
+      <c r="C140" t="s"/>
+      <c r="D140" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E140" t="s"/>
+      <c r="F140" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G140" t="s">
+        <v>58</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M140" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N140" t="s">
+        <v>64</v>
+      </c>
+      <c r="O140" t="s">
+        <v>1493</v>
+      </c>
+      <c r="P140" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>67</v>
+      </c>
+      <c r="R140" t="s">
+        <v>68</v>
+      </c>
+      <c r="S140" t="s"/>
+      <c r="T140" t="s">
+        <v>69</v>
+      </c>
+      <c r="U140" t="s">
+        <v>1495</v>
+      </c>
+      <c r="V140" t="s"/>
+      <c r="W140" t="s">
+        <v>1496</v>
+      </c>
+      <c r="X140" t="s"/>
+      <c r="Y140" t="s"/>
+      <c r="Z140" t="s"/>
+      <c r="AA140" t="s"/>
+      <c r="AB140" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B141" t="s"/>
+      <c r="C141" t="s"/>
+      <c r="D141" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E141" t="s"/>
+      <c r="F141" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G141" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1502</v>
+      </c>
+      <c r="N141" t="s">
+        <v>64</v>
+      </c>
+      <c r="O141" t="s">
+        <v>1503</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>67</v>
+      </c>
+      <c r="R141" t="s">
+        <v>68</v>
+      </c>
+      <c r="S141" t="s"/>
+      <c r="T141" t="s">
+        <v>69</v>
+      </c>
+      <c r="U141" t="s">
+        <v>1505</v>
+      </c>
+      <c r="V141" t="s"/>
+      <c r="W141" t="s">
+        <v>1506</v>
+      </c>
+      <c r="X141" t="s"/>
+      <c r="Y141" t="s"/>
+      <c r="Z141" t="s"/>
+      <c r="AA141" t="s"/>
+      <c r="AB141" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B142" t="s"/>
+      <c r="C142" t="s"/>
+      <c r="D142" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E142" t="s"/>
+      <c r="F142" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G142" t="s">
+        <v>58</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1511</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M142" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N142" t="s">
+        <v>64</v>
+      </c>
+      <c r="O142" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P142" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>67</v>
+      </c>
+      <c r="R142" t="s">
+        <v>68</v>
+      </c>
+      <c r="S142" t="s"/>
+      <c r="T142" t="s">
+        <v>69</v>
+      </c>
+      <c r="U142" t="s">
+        <v>1515</v>
+      </c>
+      <c r="V142" t="s"/>
+      <c r="W142" t="s">
+        <v>1516</v>
+      </c>
+      <c r="X142" t="s"/>
+      <c r="Y142" t="s"/>
+      <c r="Z142" t="s"/>
+      <c r="AA142" t="s"/>
+      <c r="AB142" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B143" t="s"/>
+      <c r="C143" t="s"/>
+      <c r="D143" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E143" t="s"/>
+      <c r="F143" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G143" t="s">
+        <v>58</v>
+      </c>
+      <c r="H143" t="s">
+        <v>288</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M143" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N143" t="s">
+        <v>64</v>
+      </c>
+      <c r="O143" t="s">
+        <v>1522</v>
+      </c>
+      <c r="P143" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>67</v>
+      </c>
+      <c r="R143" t="s">
+        <v>68</v>
+      </c>
+      <c r="S143" t="s"/>
+      <c r="T143" t="s">
+        <v>69</v>
+      </c>
+      <c r="U143" t="s">
+        <v>1524</v>
+      </c>
+      <c r="V143" t="s"/>
+      <c r="W143" t="s">
+        <v>1525</v>
+      </c>
+      <c r="X143" t="s"/>
+      <c r="Y143" t="s"/>
+      <c r="Z143" t="s"/>
+      <c r="AA143" t="s"/>
+      <c r="AB143" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B144" t="s"/>
+      <c r="C144" t="s"/>
+      <c r="D144" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E144" t="s"/>
+      <c r="F144" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G144" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" t="s">
+        <v>773</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M144" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N144" t="s">
+        <v>64</v>
+      </c>
+      <c r="O144" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P144" t="s">
+        <v>1532</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>67</v>
+      </c>
+      <c r="R144" t="s">
+        <v>68</v>
+      </c>
+      <c r="S144" t="s"/>
+      <c r="T144" t="s">
+        <v>69</v>
+      </c>
+      <c r="U144" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V144" t="s"/>
+      <c r="W144" t="s">
+        <v>1534</v>
+      </c>
+      <c r="X144" t="s"/>
+      <c r="Y144" t="s"/>
+      <c r="Z144" t="s"/>
+      <c r="AA144" t="s"/>
+      <c r="AB144" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B145" t="s"/>
+      <c r="C145" t="s"/>
+      <c r="D145" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E145" t="s"/>
+      <c r="F145" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G145" t="s">
+        <v>58</v>
+      </c>
+      <c r="H145" t="s">
+        <v>277</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M145" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N145" t="s">
+        <v>64</v>
+      </c>
+      <c r="O145" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P145" t="s">
+        <v>1541</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>67</v>
+      </c>
+      <c r="R145" t="s">
+        <v>68</v>
+      </c>
+      <c r="S145" t="s"/>
+      <c r="T145" t="s">
+        <v>69</v>
+      </c>
+      <c r="U145" t="s">
+        <v>1542</v>
+      </c>
+      <c r="V145" t="s"/>
+      <c r="W145" t="s">
+        <v>1543</v>
+      </c>
+      <c r="X145" t="s"/>
+      <c r="Y145" t="s"/>
+      <c r="Z145" t="s"/>
+      <c r="AA145" t="s"/>
+      <c r="AB145" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B146" t="s"/>
+      <c r="C146" t="s"/>
+      <c r="D146" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E146" t="s"/>
+      <c r="F146" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G146" t="s">
+        <v>58</v>
+      </c>
+      <c r="H146" t="s">
+        <v>784</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1547</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M146" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N146" t="s">
+        <v>64</v>
+      </c>
+      <c r="O146" t="s">
+        <v>1549</v>
+      </c>
+      <c r="P146" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>67</v>
+      </c>
+      <c r="R146" t="s">
+        <v>68</v>
+      </c>
+      <c r="S146" t="s"/>
+      <c r="T146" t="s">
+        <v>69</v>
+      </c>
+      <c r="U146" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V146" t="s"/>
+      <c r="W146" t="s">
+        <v>1552</v>
+      </c>
+      <c r="X146" t="s"/>
+      <c r="Y146" t="s"/>
+      <c r="Z146" t="s"/>
+      <c r="AA146" t="s"/>
+      <c r="AB146" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B147" t="s"/>
+      <c r="C147" t="s"/>
+      <c r="D147" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E147" t="s"/>
+      <c r="F147" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G147" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M147" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N147" t="s">
+        <v>64</v>
+      </c>
+      <c r="O147" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P147" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>67</v>
+      </c>
+      <c r="R147" t="s">
+        <v>68</v>
+      </c>
+      <c r="S147" t="s"/>
+      <c r="T147" t="s">
+        <v>69</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1561</v>
+      </c>
+      <c r="V147" t="s"/>
+      <c r="W147" t="s">
+        <v>1562</v>
+      </c>
+      <c r="X147" t="s"/>
+      <c r="Y147" t="s"/>
+      <c r="Z147" t="s"/>
+      <c r="AA147" t="s"/>
+      <c r="AB147" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B148" t="s"/>
+      <c r="C148" t="s"/>
+      <c r="D148" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E148" t="s"/>
+      <c r="F148" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G148" t="s">
+        <v>58</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M148" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N148" t="s">
+        <v>64</v>
+      </c>
+      <c r="O148" t="s">
+        <v>1568</v>
+      </c>
+      <c r="P148" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>67</v>
+      </c>
+      <c r="R148" t="s">
+        <v>68</v>
+      </c>
+      <c r="S148" t="s"/>
+      <c r="T148" t="s">
+        <v>69</v>
+      </c>
+      <c r="U148" t="s">
+        <v>1570</v>
+      </c>
+      <c r="V148" t="s"/>
+      <c r="W148" t="s">
+        <v>1571</v>
+      </c>
+      <c r="X148" t="s"/>
+      <c r="Y148" t="s"/>
+      <c r="Z148" t="s"/>
+      <c r="AA148" t="s"/>
+      <c r="AB148" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B149" t="s"/>
+      <c r="C149" t="s"/>
+      <c r="D149" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E149" t="s"/>
+      <c r="F149" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G149" t="s">
+        <v>58</v>
+      </c>
+      <c r="H149" t="s">
+        <v>161</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L149" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M149" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N149" t="s">
+        <v>64</v>
+      </c>
+      <c r="O149" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P149" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>67</v>
+      </c>
+      <c r="R149" t="s">
+        <v>68</v>
+      </c>
+      <c r="S149" t="s"/>
+      <c r="T149" t="s">
+        <v>69</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V149" t="s"/>
+      <c r="W149" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X149" t="s"/>
+      <c r="Y149" t="s"/>
+      <c r="Z149" t="s"/>
+      <c r="AA149" t="s"/>
+      <c r="AB149" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B150" t="s"/>
+      <c r="C150" t="s"/>
+      <c r="D150" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E150" t="s"/>
+      <c r="F150" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G150" t="s">
+        <v>58</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M150" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N150" t="s">
+        <v>64</v>
+      </c>
+      <c r="O150" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>67</v>
+      </c>
+      <c r="R150" t="s">
+        <v>68</v>
+      </c>
+      <c r="S150" t="s"/>
+      <c r="T150" t="s">
+        <v>69</v>
+      </c>
+      <c r="U150" t="s">
+        <v>1588</v>
+      </c>
+      <c r="V150" t="s"/>
+      <c r="W150" t="s">
+        <v>1589</v>
+      </c>
+      <c r="X150" t="s"/>
+      <c r="Y150" t="s"/>
+      <c r="Z150" t="s"/>
+      <c r="AA150" t="s"/>
+      <c r="AB150" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B151" t="s"/>
+      <c r="C151" t="s"/>
+      <c r="D151" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E151" t="s"/>
+      <c r="F151" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G151" t="s">
+        <v>58</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M151" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N151" t="s">
+        <v>64</v>
+      </c>
+      <c r="O151" t="s">
+        <v>1596</v>
+      </c>
+      <c r="P151" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>67</v>
+      </c>
+      <c r="R151" t="s">
+        <v>68</v>
+      </c>
+      <c r="S151" t="s"/>
+      <c r="T151" t="s">
+        <v>69</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1598</v>
+      </c>
+      <c r="V151" t="s"/>
+      <c r="W151" t="s">
+        <v>1599</v>
+      </c>
+      <c r="X151" t="s"/>
+      <c r="Y151" t="s"/>
+      <c r="Z151" t="s"/>
+      <c r="AA151" t="s"/>
+      <c r="AB151" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B152" t="s"/>
+      <c r="C152" t="s"/>
+      <c r="D152" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E152" t="s"/>
+      <c r="F152" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G152" t="s">
+        <v>58</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L152" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N152" t="s">
+        <v>64</v>
+      </c>
+      <c r="O152" t="s">
+        <v>1606</v>
+      </c>
+      <c r="P152" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>67</v>
+      </c>
+      <c r="R152" t="s">
+        <v>68</v>
+      </c>
+      <c r="S152" t="s"/>
+      <c r="T152" t="s">
+        <v>69</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1608</v>
+      </c>
+      <c r="V152" t="s"/>
+      <c r="W152" t="s">
+        <v>1609</v>
+      </c>
+      <c r="X152" t="s"/>
+      <c r="Y152" t="s"/>
+      <c r="Z152" t="s"/>
+      <c r="AA152" t="s"/>
+      <c r="AB152" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B153" t="s"/>
+      <c r="C153" t="s"/>
+      <c r="D153" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E153" t="s"/>
+      <c r="F153" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G153" t="s">
+        <v>58</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N153" t="s">
+        <v>64</v>
+      </c>
+      <c r="O153" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P153" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>67</v>
+      </c>
+      <c r="R153" t="s">
+        <v>68</v>
+      </c>
+      <c r="S153" t="s"/>
+      <c r="T153" t="s">
+        <v>69</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V153" t="s"/>
+      <c r="W153" t="s">
+        <v>1619</v>
+      </c>
+      <c r="X153" t="s"/>
+      <c r="Y153" t="s"/>
+      <c r="Z153" t="s"/>
+      <c r="AA153" t="s"/>
+      <c r="AB153" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B154" t="s"/>
+      <c r="C154" t="s"/>
+      <c r="D154" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E154" t="s"/>
+      <c r="F154" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G154" t="s">
+        <v>58</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M154" t="s">
+        <v>1625</v>
+      </c>
+      <c r="N154" t="s">
+        <v>64</v>
+      </c>
+      <c r="O154" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P154" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>67</v>
+      </c>
+      <c r="R154" t="s">
+        <v>68</v>
+      </c>
+      <c r="S154" t="s"/>
+      <c r="T154" t="s">
+        <v>69</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V154" t="s"/>
+      <c r="W154" t="s">
+        <v>1629</v>
+      </c>
+      <c r="X154" t="s"/>
+      <c r="Y154" t="s"/>
+      <c r="Z154" t="s"/>
+      <c r="AA154" t="s"/>
+      <c r="AB154" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B155" t="s"/>
+      <c r="C155" t="s"/>
+      <c r="D155" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E155" t="s"/>
+      <c r="F155" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G155" t="s">
+        <v>58</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N155" t="s">
+        <v>64</v>
+      </c>
+      <c r="O155" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P155" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>67</v>
+      </c>
+      <c r="R155" t="s">
+        <v>68</v>
+      </c>
+      <c r="S155" t="s"/>
+      <c r="T155" t="s">
+        <v>69</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1637</v>
+      </c>
+      <c r="V155" t="s"/>
+      <c r="W155" t="s">
+        <v>1638</v>
+      </c>
+      <c r="X155" t="s"/>
+      <c r="Y155" t="s"/>
+      <c r="Z155" t="s"/>
+      <c r="AA155" t="s"/>
+      <c r="AB155" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B156" t="s"/>
+      <c r="C156" t="s"/>
+      <c r="D156" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E156" t="s"/>
+      <c r="F156" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G156" t="s">
+        <v>58</v>
+      </c>
+      <c r="H156" t="s">
+        <v>517</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L156" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M156" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N156" t="s">
+        <v>64</v>
+      </c>
+      <c r="O156" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P156" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>67</v>
+      </c>
+      <c r="R156" t="s">
+        <v>68</v>
+      </c>
+      <c r="S156" t="s"/>
+      <c r="T156" t="s">
+        <v>69</v>
+      </c>
+      <c r="U156" t="s">
+        <v>1646</v>
+      </c>
+      <c r="V156" t="s"/>
+      <c r="W156" t="s">
+        <v>1647</v>
+      </c>
+      <c r="X156" t="s"/>
+      <c r="Y156" t="s"/>
+      <c r="Z156" t="s"/>
+      <c r="AA156" t="s"/>
+      <c r="AB156" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B157" t="s"/>
+      <c r="C157" t="s"/>
+      <c r="D157" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E157" t="s"/>
+      <c r="F157" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G157" t="s">
+        <v>58</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M157" t="s">
+        <v>1653</v>
+      </c>
+      <c r="N157" t="s">
+        <v>64</v>
+      </c>
+      <c r="O157" t="s">
+        <v>1654</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>67</v>
+      </c>
+      <c r="R157" t="s">
+        <v>68</v>
+      </c>
+      <c r="S157" t="s"/>
+      <c r="T157" t="s">
+        <v>69</v>
+      </c>
+      <c r="U157" t="s">
+        <v>1656</v>
+      </c>
+      <c r="V157" t="s"/>
+      <c r="W157" t="s">
+        <v>1657</v>
+      </c>
+      <c r="X157" t="s"/>
+      <c r="Y157" t="s"/>
+      <c r="Z157" t="s"/>
+      <c r="AA157" t="s"/>
+      <c r="AB157" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B158" t="s"/>
+      <c r="C158" t="s"/>
+      <c r="D158" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E158" t="s"/>
+      <c r="F158" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G158" t="s">
+        <v>58</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N158" t="s">
+        <v>64</v>
+      </c>
+      <c r="O158" t="s">
+        <v>1663</v>
+      </c>
+      <c r="P158" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>67</v>
+      </c>
+      <c r="R158" t="s">
+        <v>68</v>
+      </c>
+      <c r="S158" t="s"/>
+      <c r="T158" t="s">
+        <v>69</v>
+      </c>
+      <c r="U158" t="s">
+        <v>1665</v>
+      </c>
+      <c r="V158" t="s"/>
+      <c r="W158" t="s">
+        <v>1666</v>
+      </c>
+      <c r="X158" t="s"/>
+      <c r="Y158" t="s"/>
+      <c r="Z158" t="s"/>
+      <c r="AA158" t="s"/>
+      <c r="AB158" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B159" t="s"/>
+      <c r="C159" t="s"/>
+      <c r="D159" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E159" t="s"/>
+      <c r="F159" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G159" t="s">
+        <v>58</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1671</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M159" t="s">
+        <v>1672</v>
+      </c>
+      <c r="N159" t="s">
+        <v>64</v>
+      </c>
+      <c r="O159" t="s">
+        <v>1673</v>
+      </c>
+      <c r="P159" t="s">
+        <v>1674</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>67</v>
+      </c>
+      <c r="R159" t="s">
+        <v>68</v>
+      </c>
+      <c r="S159" t="s"/>
+      <c r="T159" t="s">
+        <v>69</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1675</v>
+      </c>
+      <c r="V159" t="s"/>
+      <c r="W159" t="s">
+        <v>1676</v>
+      </c>
+      <c r="X159" t="s"/>
+      <c r="Y159" t="s"/>
+      <c r="Z159" t="s"/>
+      <c r="AA159" t="s"/>
+      <c r="AB159" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B160" t="s"/>
+      <c r="C160" t="s"/>
+      <c r="D160" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E160" t="s"/>
+      <c r="F160" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G160" t="s">
+        <v>58</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L160" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M160" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N160" t="s">
+        <v>64</v>
+      </c>
+      <c r="O160" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P160" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>67</v>
+      </c>
+      <c r="R160" t="s">
+        <v>68</v>
+      </c>
+      <c r="S160" t="s"/>
+      <c r="T160" t="s">
+        <v>69</v>
+      </c>
+      <c r="U160" t="s">
+        <v>1684</v>
+      </c>
+      <c r="V160" t="s"/>
+      <c r="W160" t="s">
+        <v>1685</v>
+      </c>
+      <c r="X160" t="s"/>
+      <c r="Y160" t="s"/>
+      <c r="Z160" t="s"/>
+      <c r="AA160" t="s"/>
+      <c r="AB160" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B161" t="s"/>
+      <c r="C161" t="s"/>
+      <c r="D161" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E161" t="s"/>
+      <c r="F161" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G161" t="s">
+        <v>58</v>
+      </c>
+      <c r="H161" t="s">
+        <v>948</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M161" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N161" t="s">
+        <v>64</v>
+      </c>
+      <c r="O161" t="s">
+        <v>1691</v>
+      </c>
+      <c r="P161" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>67</v>
+      </c>
+      <c r="R161" t="s">
+        <v>68</v>
+      </c>
+      <c r="S161" t="s"/>
+      <c r="T161" t="s">
+        <v>69</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1693</v>
+      </c>
+      <c r="V161" t="s"/>
+      <c r="W161" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X161" t="s"/>
+      <c r="Y161" t="s"/>
+      <c r="Z161" t="s"/>
+      <c r="AA161" t="s"/>
+      <c r="AB161" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B162" t="s"/>
+      <c r="C162" t="s"/>
+      <c r="D162" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E162" t="s"/>
+      <c r="F162" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G162" t="s">
+        <v>58</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L162" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M162" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N162" t="s">
+        <v>64</v>
+      </c>
+      <c r="O162" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P162" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>67</v>
+      </c>
+      <c r="R162" t="s">
+        <v>68</v>
+      </c>
+      <c r="S162" t="s"/>
+      <c r="T162" t="s">
+        <v>69</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V162" t="s"/>
+      <c r="W162" t="s">
+        <v>1704</v>
+      </c>
+      <c r="X162" t="s"/>
+      <c r="Y162" t="s"/>
+      <c r="Z162" t="s"/>
+      <c r="AA162" t="s"/>
+      <c r="AB162" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B163" t="s"/>
+      <c r="C163" t="s"/>
+      <c r="D163" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E163" t="s"/>
+      <c r="F163" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G163" t="s">
+        <v>58</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M163" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N163" t="s">
+        <v>64</v>
+      </c>
+      <c r="O163" t="s">
+        <v>1711</v>
+      </c>
+      <c r="P163" t="s">
+        <v>1712</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>67</v>
+      </c>
+      <c r="R163" t="s">
+        <v>68</v>
+      </c>
+      <c r="S163" t="s"/>
+      <c r="T163" t="s">
+        <v>69</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1713</v>
+      </c>
+      <c r="V163" t="s"/>
+      <c r="W163" t="s">
+        <v>1714</v>
+      </c>
+      <c r="X163" t="s"/>
+      <c r="Y163" t="s"/>
+      <c r="Z163" t="s"/>
+      <c r="AA163" t="s"/>
+      <c r="AB163" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B164" t="s"/>
+      <c r="C164" t="s"/>
+      <c r="D164" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E164" t="s"/>
+      <c r="F164" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G164" t="s">
+        <v>58</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1719</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M164" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N164" t="s">
+        <v>64</v>
+      </c>
+      <c r="O164" t="s">
+        <v>1721</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1722</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>67</v>
+      </c>
+      <c r="R164" t="s">
+        <v>68</v>
+      </c>
+      <c r="S164" t="s"/>
+      <c r="T164" t="s">
+        <v>69</v>
+      </c>
+      <c r="U164" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V164" t="s"/>
+      <c r="W164" t="s">
+        <v>1724</v>
+      </c>
+      <c r="X164" t="s"/>
+      <c r="Y164" t="s"/>
+      <c r="Z164" t="s"/>
+      <c r="AA164" t="s"/>
+      <c r="AB164" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B165" t="s"/>
+      <c r="C165" t="s"/>
+      <c r="D165" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E165" t="s"/>
+      <c r="F165" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G165" t="s">
+        <v>58</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>1728</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1730</v>
+      </c>
+      <c r="N165" t="s">
+        <v>64</v>
+      </c>
+      <c r="O165" t="s">
+        <v>1731</v>
+      </c>
+      <c r="P165" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>67</v>
+      </c>
+      <c r="R165" t="s">
+        <v>68</v>
+      </c>
+      <c r="S165" t="s"/>
+      <c r="T165" t="s">
+        <v>69</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1733</v>
+      </c>
+      <c r="V165" t="s"/>
+      <c r="W165" t="s">
+        <v>1734</v>
+      </c>
+      <c r="X165" t="s"/>
+      <c r="Y165" t="s"/>
+      <c r="Z165" t="s"/>
+      <c r="AA165" t="s"/>
+      <c r="AB165" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B166" t="s"/>
+      <c r="C166" t="s"/>
+      <c r="D166" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E166" t="s"/>
+      <c r="F166" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G166" t="s">
+        <v>58</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K166" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1739</v>
+      </c>
+      <c r="N166" t="s">
+        <v>64</v>
+      </c>
+      <c r="O166" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P166" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>67</v>
+      </c>
+      <c r="R166" t="s">
+        <v>68</v>
+      </c>
+      <c r="S166" t="s"/>
+      <c r="T166" t="s">
+        <v>69</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V166" t="s"/>
+      <c r="W166" t="s">
+        <v>1743</v>
+      </c>
+      <c r="X166" t="s"/>
+      <c r="Y166" t="s"/>
+      <c r="Z166" t="s"/>
+      <c r="AA166" t="s"/>
+      <c r="AB166" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B167" t="s"/>
+      <c r="C167" t="s"/>
+      <c r="D167" t="s"/>
+      <c r="E167" t="s"/>
+      <c r="F167" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G167" t="s">
+        <v>58</v>
+      </c>
+      <c r="H167" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K167" t="s">
+        <v>1747</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M167" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N167" t="s">
+        <v>64</v>
+      </c>
+      <c r="O167" t="s">
+        <v>1749</v>
+      </c>
+      <c r="P167" t="s">
+        <v>1750</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>67</v>
+      </c>
+      <c r="R167" t="s">
+        <v>68</v>
+      </c>
+      <c r="S167" t="s"/>
+      <c r="T167" t="s">
+        <v>69</v>
+      </c>
+      <c r="U167" t="s">
+        <v>1751</v>
+      </c>
+      <c r="V167" t="s"/>
+      <c r="W167" t="s">
+        <v>1752</v>
+      </c>
+      <c r="X167" t="s"/>
+      <c r="Y167" t="s"/>
+      <c r="Z167" t="s"/>
+      <c r="AA167" t="s"/>
+      <c r="AB167" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B168" t="s"/>
+      <c r="C168" t="s"/>
+      <c r="D168" t="s"/>
+      <c r="E168" t="s"/>
+      <c r="F168" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G168" t="s">
+        <v>58</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M168" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N168" t="s">
+        <v>64</v>
+      </c>
+      <c r="O168" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P168" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>67</v>
+      </c>
+      <c r="R168" t="s">
+        <v>68</v>
+      </c>
+      <c r="S168" t="s"/>
+      <c r="T168" t="s">
+        <v>69</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V168" t="s"/>
+      <c r="W168" t="s">
+        <v>1760</v>
+      </c>
+      <c r="X168" t="s"/>
+      <c r="Y168" t="s"/>
+      <c r="Z168" t="s"/>
+      <c r="AA168" t="s"/>
+      <c r="AB168" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B169" t="s"/>
+      <c r="C169" t="s"/>
+      <c r="D169" t="s"/>
+      <c r="E169" t="s"/>
+      <c r="F169" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G169" t="s">
+        <v>58</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L169" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M169" t="s">
+        <v>1765</v>
+      </c>
+      <c r="N169" t="s">
+        <v>64</v>
+      </c>
+      <c r="O169" t="s">
+        <v>1766</v>
+      </c>
+      <c r="P169" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>67</v>
+      </c>
+      <c r="R169" t="s">
+        <v>68</v>
+      </c>
+      <c r="S169" t="s"/>
+      <c r="T169" t="s">
+        <v>69</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1768</v>
+      </c>
+      <c r="V169" t="s"/>
+      <c r="W169" t="s">
+        <v>1769</v>
+      </c>
+      <c r="X169" t="s"/>
+      <c r="Y169" t="s"/>
+      <c r="Z169" t="s"/>
+      <c r="AA169" t="s"/>
+      <c r="AB169" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B170" t="s"/>
+      <c r="C170" t="s"/>
+      <c r="D170" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E170" t="s"/>
+      <c r="F170" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G170" t="s">
+        <v>58</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K170" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L170" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M170" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N170" t="s">
+        <v>64</v>
+      </c>
+      <c r="O170" t="s">
+        <v>1775</v>
+      </c>
+      <c r="P170" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>67</v>
+      </c>
+      <c r="R170" t="s">
+        <v>68</v>
+      </c>
+      <c r="S170" t="s"/>
+      <c r="T170" t="s">
+        <v>69</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1777</v>
+      </c>
+      <c r="V170" t="s"/>
+      <c r="W170" t="s">
+        <v>1778</v>
+      </c>
+      <c r="X170" t="s"/>
+      <c r="Y170" t="s"/>
+      <c r="Z170" t="s"/>
+      <c r="AA170" t="s"/>
+      <c r="AB170" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B171" t="s"/>
+      <c r="C171" t="s"/>
+      <c r="D171" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E171" t="s"/>
+      <c r="F171" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G171" t="s">
+        <v>58</v>
+      </c>
+      <c r="H171" t="s">
+        <v>937</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K171" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L171" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M171" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N171" t="s">
+        <v>64</v>
+      </c>
+      <c r="O171" t="s">
+        <v>1784</v>
+      </c>
+      <c r="P171" t="s">
+        <v>1785</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>67</v>
+      </c>
+      <c r="R171" t="s">
+        <v>68</v>
+      </c>
+      <c r="S171" t="s"/>
+      <c r="T171" t="s">
+        <v>69</v>
+      </c>
+      <c r="U171" t="s">
+        <v>1786</v>
+      </c>
+      <c r="V171" t="s"/>
+      <c r="W171" t="s">
+        <v>1787</v>
+      </c>
+      <c r="X171" t="s"/>
+      <c r="Y171" t="s"/>
+      <c r="Z171" t="s"/>
+      <c r="AA171" t="s"/>
+      <c r="AB171" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B172" t="s"/>
+      <c r="C172" t="s"/>
+      <c r="D172" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E172" t="s"/>
+      <c r="F172" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G172" t="s">
+        <v>58</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M172" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N172" t="s">
+        <v>64</v>
+      </c>
+      <c r="O172" t="s">
+        <v>1794</v>
+      </c>
+      <c r="P172" t="s">
+        <v>1795</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>67</v>
+      </c>
+      <c r="R172" t="s">
+        <v>68</v>
+      </c>
+      <c r="S172" t="s"/>
+      <c r="T172" t="s">
+        <v>69</v>
+      </c>
+      <c r="U172" t="s">
+        <v>1796</v>
+      </c>
+      <c r="V172" t="s"/>
+      <c r="W172" t="s">
+        <v>1797</v>
+      </c>
+      <c r="X172" t="s"/>
+      <c r="Y172" t="s"/>
+      <c r="Z172" t="s"/>
+      <c r="AA172" t="s"/>
+      <c r="AB172" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B173" t="s"/>
+      <c r="C173" t="s"/>
+      <c r="D173" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E173" t="s"/>
+      <c r="F173" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G173" t="s">
+        <v>58</v>
+      </c>
+      <c r="H173" t="s">
+        <v>981</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M173" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N173" t="s">
+        <v>64</v>
+      </c>
+      <c r="O173" t="s">
+        <v>1803</v>
+      </c>
+      <c r="P173" t="s">
+        <v>1804</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>67</v>
+      </c>
+      <c r="R173" t="s">
+        <v>68</v>
+      </c>
+      <c r="S173" t="s"/>
+      <c r="T173" t="s">
+        <v>69</v>
+      </c>
+      <c r="U173" t="s">
+        <v>1805</v>
+      </c>
+      <c r="V173" t="s"/>
+      <c r="W173" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X173" t="s"/>
+      <c r="Y173" t="s"/>
+      <c r="Z173" t="s"/>
+      <c r="AA173" t="s"/>
+      <c r="AB173" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B174" t="s"/>
+      <c r="C174" t="s"/>
+      <c r="D174" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E174" t="s"/>
+      <c r="F174" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G174" t="s">
+        <v>58</v>
+      </c>
+      <c r="H174" t="s">
+        <v>376</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L174" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M174" t="s">
+        <v>1811</v>
+      </c>
+      <c r="N174" t="s">
+        <v>64</v>
+      </c>
+      <c r="O174" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P174" t="s">
+        <v>1813</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>67</v>
+      </c>
+      <c r="R174" t="s">
+        <v>68</v>
+      </c>
+      <c r="S174" t="s"/>
+      <c r="T174" t="s">
+        <v>69</v>
+      </c>
+      <c r="U174" t="s">
+        <v>1814</v>
+      </c>
+      <c r="V174" t="s"/>
+      <c r="W174" t="s">
+        <v>1815</v>
+      </c>
+      <c r="X174" t="s"/>
+      <c r="Y174" t="s"/>
+      <c r="Z174" t="s"/>
+      <c r="AA174" t="s"/>
+      <c r="AB174" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B175" t="s"/>
+      <c r="C175" t="s"/>
+      <c r="D175" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E175" t="s"/>
+      <c r="F175" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G175" t="s">
+        <v>58</v>
+      </c>
+      <c r="H175" t="s">
+        <v>916</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M175" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N175" t="s">
+        <v>64</v>
+      </c>
+      <c r="O175" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P175" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>67</v>
+      </c>
+      <c r="R175" t="s">
+        <v>68</v>
+      </c>
+      <c r="S175" t="s"/>
+      <c r="T175" t="s">
+        <v>69</v>
+      </c>
+      <c r="U175" t="s">
+        <v>1823</v>
+      </c>
+      <c r="V175" t="s"/>
+      <c r="W175" t="s">
+        <v>1824</v>
+      </c>
+      <c r="X175" t="s"/>
+      <c r="Y175" t="s"/>
+      <c r="Z175" t="s"/>
+      <c r="AA175" t="s"/>
+      <c r="AB175" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B176" t="s"/>
+      <c r="C176" t="s"/>
+      <c r="D176" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E176" t="s"/>
+      <c r="F176" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G176" t="s">
+        <v>58</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L176" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M176" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N176" t="s">
+        <v>64</v>
+      </c>
+      <c r="O176" t="s">
+        <v>1831</v>
+      </c>
+      <c r="P176" t="s">
+        <v>1832</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>67</v>
+      </c>
+      <c r="R176" t="s">
+        <v>68</v>
+      </c>
+      <c r="S176" t="s"/>
+      <c r="T176" t="s">
+        <v>69</v>
+      </c>
+      <c r="U176" t="s">
+        <v>1833</v>
+      </c>
+      <c r="V176" t="s"/>
+      <c r="W176" t="s">
+        <v>1834</v>
+      </c>
+      <c r="X176" t="s"/>
+      <c r="Y176" t="s"/>
+      <c r="Z176" t="s"/>
+      <c r="AA176" t="s"/>
+      <c r="AB176" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
+      <c r="A177" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B177" t="s"/>
+      <c r="C177" t="s"/>
+      <c r="D177" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E177" t="s"/>
+      <c r="F177" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G177" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" t="s">
+        <v>548</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M177" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N177" t="s">
+        <v>64</v>
+      </c>
+      <c r="O177" t="s">
+        <v>1840</v>
+      </c>
+      <c r="P177" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>67</v>
+      </c>
+      <c r="R177" t="s">
+        <v>68</v>
+      </c>
+      <c r="S177" t="s"/>
+      <c r="T177" t="s">
+        <v>69</v>
+      </c>
+      <c r="U177" t="s">
+        <v>1842</v>
+      </c>
+      <c r="V177" t="s"/>
+      <c r="W177" t="s">
+        <v>1843</v>
+      </c>
+      <c r="X177" t="s"/>
+      <c r="Y177" t="s"/>
+      <c r="Z177" t="s"/>
+      <c r="AA177" t="s"/>
+      <c r="AB177" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B178" t="s"/>
+      <c r="C178" t="s"/>
+      <c r="D178" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E178" t="s"/>
+      <c r="F178" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G178" t="s">
+        <v>58</v>
+      </c>
+      <c r="H178" t="s">
+        <v>870</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>1846</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1847</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M178" t="s">
+        <v>1848</v>
+      </c>
+      <c r="N178" t="s">
+        <v>64</v>
+      </c>
+      <c r="O178" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P178" t="s">
+        <v>1850</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>67</v>
+      </c>
+      <c r="R178" t="s">
+        <v>68</v>
+      </c>
+      <c r="S178" t="s"/>
+      <c r="T178" t="s">
+        <v>69</v>
+      </c>
+      <c r="U178" t="s">
+        <v>1851</v>
+      </c>
+      <c r="V178" t="s"/>
+      <c r="W178" t="s">
+        <v>1852</v>
+      </c>
+      <c r="X178" t="s"/>
+      <c r="Y178" t="s"/>
+      <c r="Z178" t="s"/>
+      <c r="AA178" t="s"/>
+      <c r="AB178" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B179" t="s"/>
+      <c r="C179" t="s"/>
+      <c r="D179" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E179" t="s"/>
+      <c r="F179" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G179" t="s">
+        <v>58</v>
+      </c>
+      <c r="H179" t="s">
+        <v>517</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L179" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M179" t="s">
+        <v>1857</v>
+      </c>
+      <c r="N179" t="s">
+        <v>64</v>
+      </c>
+      <c r="O179" t="s">
+        <v>1858</v>
+      </c>
+      <c r="P179" t="s">
+        <v>1859</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>67</v>
+      </c>
+      <c r="R179" t="s">
+        <v>68</v>
+      </c>
+      <c r="S179" t="s"/>
+      <c r="T179" t="s">
+        <v>69</v>
+      </c>
+      <c r="U179" t="s">
+        <v>1860</v>
+      </c>
+      <c r="V179" t="s"/>
+      <c r="W179" t="s">
+        <v>1861</v>
+      </c>
+      <c r="X179" t="s"/>
+      <c r="Y179" t="s"/>
+      <c r="Z179" t="s"/>
+      <c r="AA179" t="s"/>
+      <c r="AB179" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B180" t="s"/>
+      <c r="C180" t="s"/>
+      <c r="D180" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E180" t="s"/>
+      <c r="F180" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G180" t="s">
+        <v>58</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1865</v>
+      </c>
+      <c r="L180" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M180" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N180" t="s">
+        <v>64</v>
+      </c>
+      <c r="O180" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P180" t="s">
+        <v>1868</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>67</v>
+      </c>
+      <c r="R180" t="s">
+        <v>68</v>
+      </c>
+      <c r="S180" t="s"/>
+      <c r="T180" t="s">
+        <v>69</v>
+      </c>
+      <c r="U180" t="s">
+        <v>1869</v>
+      </c>
+      <c r="V180" t="s"/>
+      <c r="W180" t="s">
+        <v>1870</v>
+      </c>
+      <c r="X180" t="s"/>
+      <c r="Y180" t="s"/>
+      <c r="Z180" t="s"/>
+      <c r="AA180" t="s"/>
+      <c r="AB180" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
+      <c r="A181" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B181" t="s"/>
+      <c r="C181" t="s"/>
+      <c r="D181" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E181" t="s"/>
+      <c r="F181" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M181" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N181" t="s">
+        <v>64</v>
+      </c>
+      <c r="O181" t="s">
+        <v>1875</v>
+      </c>
+      <c r="P181" t="s">
+        <v>1876</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>67</v>
+      </c>
+      <c r="R181" t="s">
+        <v>68</v>
+      </c>
+      <c r="S181" t="s"/>
+      <c r="T181" t="s">
+        <v>69</v>
+      </c>
+      <c r="U181" t="s">
+        <v>1877</v>
+      </c>
+      <c r="V181" t="s"/>
+      <c r="W181" t="s">
+        <v>1878</v>
+      </c>
+      <c r="X181" t="s"/>
+      <c r="Y181" t="s"/>
+      <c r="Z181" t="s"/>
+      <c r="AA181" t="s"/>
+      <c r="AB181" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
+      <c r="A182" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B182" t="s"/>
+      <c r="C182" t="s"/>
+      <c r="D182" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E182" t="s"/>
+      <c r="F182" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G182" t="s">
+        <v>58</v>
+      </c>
+      <c r="H182" t="s">
+        <v>475</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1881</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M182" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N182" t="s">
+        <v>64</v>
+      </c>
+      <c r="O182" t="s">
+        <v>1883</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1884</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>67</v>
+      </c>
+      <c r="R182" t="s">
+        <v>68</v>
+      </c>
+      <c r="S182" t="s"/>
+      <c r="T182" t="s">
+        <v>69</v>
+      </c>
+      <c r="U182" t="s">
+        <v>1885</v>
+      </c>
+      <c r="V182" t="s"/>
+      <c r="W182" t="s">
+        <v>1886</v>
+      </c>
+      <c r="X182" t="s"/>
+      <c r="Y182" t="s"/>
+      <c r="Z182" t="s"/>
+      <c r="AA182" t="s"/>
+      <c r="AB182" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
+      <c r="A183" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B183" t="s"/>
+      <c r="C183" t="s"/>
+      <c r="D183" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E183" t="s"/>
+      <c r="F183" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G183" t="s">
+        <v>58</v>
+      </c>
+      <c r="H183" t="s">
+        <v>729</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K183" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M183" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N183" t="s">
+        <v>64</v>
+      </c>
+      <c r="O183" t="s">
+        <v>1892</v>
+      </c>
+      <c r="P183" t="s">
+        <v>1893</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>67</v>
+      </c>
+      <c r="R183" t="s">
+        <v>68</v>
+      </c>
+      <c r="S183" t="s"/>
+      <c r="T183" t="s">
+        <v>69</v>
+      </c>
+      <c r="U183" t="s">
+        <v>1894</v>
+      </c>
+      <c r="V183" t="s"/>
+      <c r="W183" t="s">
+        <v>1895</v>
+      </c>
+      <c r="X183" t="s"/>
+      <c r="Y183" t="s"/>
+      <c r="Z183" t="s"/>
+      <c r="AA183" t="s"/>
+      <c r="AB183" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
+      <c r="A184" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B184" t="s"/>
+      <c r="C184" t="s"/>
+      <c r="D184" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E184" t="s"/>
+      <c r="F184" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G184" t="s">
+        <v>58</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M184" t="s">
+        <v>1900</v>
+      </c>
+      <c r="N184" t="s">
+        <v>64</v>
+      </c>
+      <c r="O184" t="s">
+        <v>1901</v>
+      </c>
+      <c r="P184" t="s">
+        <v>1902</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>67</v>
+      </c>
+      <c r="R184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S184" t="s"/>
+      <c r="T184" t="s">
+        <v>69</v>
+      </c>
+      <c r="U184" t="s">
+        <v>1903</v>
+      </c>
+      <c r="V184" t="s"/>
+      <c r="W184" t="s">
+        <v>1904</v>
+      </c>
+      <c r="X184" t="s"/>
+      <c r="Y184" t="s"/>
+      <c r="Z184" t="s"/>
+      <c r="AA184" t="s"/>
+      <c r="AB184" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
+      <c r="A185" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B185" t="s"/>
+      <c r="C185" t="s"/>
+      <c r="D185" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E185" t="s"/>
+      <c r="F185" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G185" t="s">
+        <v>58</v>
+      </c>
+      <c r="H185" t="s">
+        <v>653</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M185" t="s">
+        <v>1908</v>
+      </c>
+      <c r="N185" t="s">
+        <v>64</v>
+      </c>
+      <c r="O185" t="s">
+        <v>1909</v>
+      </c>
+      <c r="P185" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>67</v>
+      </c>
+      <c r="R185" t="s">
+        <v>68</v>
+      </c>
+      <c r="S185" t="s"/>
+      <c r="T185" t="s">
+        <v>69</v>
+      </c>
+      <c r="U185" t="s">
+        <v>1911</v>
+      </c>
+      <c r="V185" t="s"/>
+      <c r="W185" t="s">
+        <v>1912</v>
+      </c>
+      <c r="X185" t="s"/>
+      <c r="Y185" t="s"/>
+      <c r="Z185" t="s"/>
+      <c r="AA185" t="s"/>
+      <c r="AB185" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
+      <c r="A186" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B186" t="s"/>
+      <c r="C186" t="s"/>
+      <c r="D186" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E186" t="s"/>
+      <c r="F186" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G186" t="s">
+        <v>58</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M186" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N186" t="s">
+        <v>64</v>
+      </c>
+      <c r="O186" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P186" t="s">
+        <v>1920</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>67</v>
+      </c>
+      <c r="R186" t="s">
+        <v>68</v>
+      </c>
+      <c r="S186" t="s"/>
+      <c r="T186" t="s">
+        <v>69</v>
+      </c>
+      <c r="U186" t="s">
+        <v>1921</v>
+      </c>
+      <c r="V186" t="s"/>
+      <c r="W186" t="s">
+        <v>1922</v>
+      </c>
+      <c r="X186" t="s"/>
+      <c r="Y186" t="s"/>
+      <c r="Z186" t="s"/>
+      <c r="AA186" t="s"/>
+      <c r="AB186" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B187" t="s"/>
+      <c r="C187" t="s"/>
+      <c r="D187" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E187" t="s"/>
+      <c r="F187" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G187" t="s">
+        <v>58</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>1926</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M187" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N187" t="s">
+        <v>64</v>
+      </c>
+      <c r="O187" t="s">
+        <v>1929</v>
+      </c>
+      <c r="P187" t="s">
+        <v>1930</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>67</v>
+      </c>
+      <c r="R187" t="s">
+        <v>68</v>
+      </c>
+      <c r="S187" t="s"/>
+      <c r="T187" t="s">
+        <v>69</v>
+      </c>
+      <c r="U187" t="s">
+        <v>1931</v>
+      </c>
+      <c r="V187" t="s"/>
+      <c r="W187" t="s">
+        <v>1932</v>
+      </c>
+      <c r="X187" t="s"/>
+      <c r="Y187" t="s"/>
+      <c r="Z187" t="s"/>
+      <c r="AA187" t="s"/>
+      <c r="AB187" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B188" t="s"/>
+      <c r="C188" t="s"/>
+      <c r="D188" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E188" t="s"/>
+      <c r="F188" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G188" t="s">
+        <v>58</v>
+      </c>
+      <c r="H188" t="s">
+        <v>687</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1936</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M188" t="s">
+        <v>1937</v>
+      </c>
+      <c r="N188" t="s">
+        <v>64</v>
+      </c>
+      <c r="O188" t="s">
+        <v>1938</v>
+      </c>
+      <c r="P188" t="s">
+        <v>1939</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>67</v>
+      </c>
+      <c r="R188" t="s">
+        <v>68</v>
+      </c>
+      <c r="S188" t="s"/>
+      <c r="T188" t="s">
+        <v>69</v>
+      </c>
+      <c r="U188" t="s">
+        <v>1940</v>
+      </c>
+      <c r="V188" t="s"/>
+      <c r="W188" t="s">
+        <v>1941</v>
+      </c>
+      <c r="X188" t="s"/>
+      <c r="Y188" t="s"/>
+      <c r="Z188" t="s"/>
+      <c r="AA188" t="s"/>
+      <c r="AB188" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B189" t="s"/>
+      <c r="C189" t="s"/>
+      <c r="D189" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E189" t="s"/>
+      <c r="F189" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G189" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M189" t="s">
+        <v>1946</v>
+      </c>
+      <c r="N189" t="s">
+        <v>64</v>
+      </c>
+      <c r="O189" t="s">
+        <v>1947</v>
+      </c>
+      <c r="P189" t="s">
+        <v>1948</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>67</v>
+      </c>
+      <c r="R189" t="s">
+        <v>68</v>
+      </c>
+      <c r="S189" t="s"/>
+      <c r="T189" t="s">
+        <v>69</v>
+      </c>
+      <c r="U189" t="s">
+        <v>1949</v>
+      </c>
+      <c r="V189" t="s"/>
+      <c r="W189" t="s">
+        <v>1950</v>
+      </c>
+      <c r="X189" t="s"/>
+      <c r="Y189" t="s"/>
+      <c r="Z189" t="s"/>
+      <c r="AA189" t="s"/>
+      <c r="AB189" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B190" t="s"/>
+      <c r="C190" t="s"/>
+      <c r="D190" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E190" t="s"/>
+      <c r="F190" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G190" t="s">
+        <v>58</v>
+      </c>
+      <c r="H190" t="s">
+        <v>698</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>1953</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1954</v>
+      </c>
+      <c r="L190" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M190" t="s">
+        <v>1955</v>
+      </c>
+      <c r="N190" t="s">
+        <v>64</v>
+      </c>
+      <c r="O190" t="s">
+        <v>1956</v>
+      </c>
+      <c r="P190" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>67</v>
+      </c>
+      <c r="R190" t="s">
+        <v>68</v>
+      </c>
+      <c r="S190" t="s"/>
+      <c r="T190" t="s">
+        <v>69</v>
+      </c>
+      <c r="U190" t="s">
+        <v>1958</v>
+      </c>
+      <c r="V190" t="s"/>
+      <c r="W190" t="s">
+        <v>1959</v>
+      </c>
+      <c r="X190" t="s"/>
+      <c r="Y190" t="s"/>
+      <c r="Z190" t="s"/>
+      <c r="AA190" t="s"/>
+      <c r="AB190" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B191" t="s"/>
+      <c r="C191" t="s"/>
+      <c r="D191" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E191" t="s"/>
+      <c r="F191" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G191" t="s">
+        <v>58</v>
+      </c>
+      <c r="H191" t="s">
+        <v>620</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K191" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M191" t="s">
+        <v>1964</v>
+      </c>
+      <c r="N191" t="s">
+        <v>64</v>
+      </c>
+      <c r="O191" t="s">
+        <v>1965</v>
+      </c>
+      <c r="P191" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>67</v>
+      </c>
+      <c r="R191" t="s">
+        <v>68</v>
+      </c>
+      <c r="S191" t="s"/>
+      <c r="T191" t="s">
+        <v>69</v>
+      </c>
+      <c r="U191" t="s">
+        <v>1967</v>
+      </c>
+      <c r="V191" t="s"/>
+      <c r="W191" t="s">
+        <v>1968</v>
+      </c>
+      <c r="X191" t="s"/>
+      <c r="Y191" t="s"/>
+      <c r="Z191" t="s"/>
+      <c r="AA191" t="s"/>
+      <c r="AB191" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B192" t="s"/>
+      <c r="C192" t="s"/>
+      <c r="D192" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E192" t="s"/>
+      <c r="F192" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G192" t="s">
+        <v>58</v>
+      </c>
+      <c r="H192" t="s">
+        <v>161</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K192" t="s">
+        <v>1971</v>
+      </c>
+      <c r="L192" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M192" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N192" t="s">
+        <v>64</v>
+      </c>
+      <c r="O192" t="s">
+        <v>1973</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1974</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>67</v>
+      </c>
+      <c r="R192" t="s">
+        <v>68</v>
+      </c>
+      <c r="S192" t="s"/>
+      <c r="T192" t="s">
+        <v>69</v>
+      </c>
+      <c r="U192" t="s">
+        <v>1975</v>
+      </c>
+      <c r="V192" t="s"/>
+      <c r="W192" t="s">
+        <v>1976</v>
+      </c>
+      <c r="X192" t="s"/>
+      <c r="Y192" t="s"/>
+      <c r="Z192" t="s"/>
+      <c r="AA192" t="s"/>
+      <c r="AB192" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
+      <c r="A193" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B193" t="s"/>
+      <c r="C193" t="s"/>
+      <c r="D193" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E193" t="s"/>
+      <c r="F193" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G193" t="s">
+        <v>58</v>
+      </c>
+      <c r="H193" t="s">
+        <v>816</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K193" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M193" t="s">
+        <v>1980</v>
+      </c>
+      <c r="N193" t="s">
+        <v>64</v>
+      </c>
+      <c r="O193" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P193" t="s">
+        <v>1982</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>67</v>
+      </c>
+      <c r="R193" t="s">
+        <v>68</v>
+      </c>
+      <c r="S193" t="s"/>
+      <c r="T193" t="s">
+        <v>69</v>
+      </c>
+      <c r="U193" t="s">
+        <v>1983</v>
+      </c>
+      <c r="V193" t="s"/>
+      <c r="W193" t="s">
+        <v>1984</v>
+      </c>
+      <c r="X193" t="s"/>
+      <c r="Y193" t="s"/>
+      <c r="Z193" t="s"/>
+      <c r="AA193" t="s"/>
+      <c r="AB193" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B194" t="s"/>
+      <c r="C194" t="s"/>
+      <c r="D194" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E194" t="s"/>
+      <c r="F194" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G194" t="s">
+        <v>58</v>
+      </c>
+      <c r="H194" t="s">
+        <v>642</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1988</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M194" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N194" t="s">
+        <v>64</v>
+      </c>
+      <c r="O194" t="s">
+        <v>1990</v>
+      </c>
+      <c r="P194" t="s">
+        <v>1991</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>67</v>
+      </c>
+      <c r="R194" t="s">
+        <v>68</v>
+      </c>
+      <c r="S194" t="s"/>
+      <c r="T194" t="s">
+        <v>69</v>
+      </c>
+      <c r="U194" t="s">
+        <v>1992</v>
+      </c>
+      <c r="V194" t="s"/>
+      <c r="W194" t="s">
+        <v>1993</v>
+      </c>
+      <c r="X194" t="s"/>
+      <c r="Y194" t="s"/>
+      <c r="Z194" t="s"/>
+      <c r="AA194" t="s"/>
+      <c r="AB194" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
+      <c r="A195" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B195" t="s"/>
+      <c r="C195" t="s"/>
+      <c r="D195" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E195" t="s"/>
+      <c r="F195" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G195" t="s">
+        <v>58</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>1997</v>
+      </c>
+      <c r="K195" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M195" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N195" t="s">
+        <v>64</v>
+      </c>
+      <c r="O195" t="s">
+        <v>2000</v>
+      </c>
+      <c r="P195" t="s">
+        <v>2001</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>67</v>
+      </c>
+      <c r="R195" t="s">
+        <v>68</v>
+      </c>
+      <c r="S195" t="s"/>
+      <c r="T195" t="s">
+        <v>69</v>
+      </c>
+      <c r="U195" t="s">
+        <v>2002</v>
+      </c>
+      <c r="V195" t="s"/>
+      <c r="W195" t="s">
+        <v>2003</v>
+      </c>
+      <c r="X195" t="s"/>
+      <c r="Y195" t="s"/>
+      <c r="Z195" t="s"/>
+      <c r="AA195" t="s"/>
+      <c r="AB195" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
+      <c r="A196" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B196" t="s"/>
+      <c r="C196" t="s"/>
+      <c r="D196" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E196" t="s"/>
+      <c r="F196" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G196" t="s">
+        <v>58</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2007</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M196" t="s">
+        <v>2008</v>
+      </c>
+      <c r="N196" t="s">
+        <v>64</v>
+      </c>
+      <c r="O196" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P196" t="s">
+        <v>2010</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>67</v>
+      </c>
+      <c r="R196" t="s">
+        <v>68</v>
+      </c>
+      <c r="S196" t="s"/>
+      <c r="T196" t="s">
+        <v>69</v>
+      </c>
+      <c r="U196" t="s">
+        <v>2011</v>
+      </c>
+      <c r="V196" t="s"/>
+      <c r="W196" t="s">
+        <v>2012</v>
+      </c>
+      <c r="X196" t="s"/>
+      <c r="Y196" t="s"/>
+      <c r="Z196" t="s"/>
+      <c r="AA196" t="s"/>
+      <c r="AB196" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B197" t="s"/>
+      <c r="C197" t="s"/>
+      <c r="D197" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E197" t="s"/>
+      <c r="F197" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G197" t="s">
+        <v>58</v>
+      </c>
+      <c r="H197" t="s">
+        <v>937</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>2014</v>
+      </c>
+      <c r="K197" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M197" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N197" t="s">
+        <v>64</v>
+      </c>
+      <c r="O197" t="s">
+        <v>2017</v>
+      </c>
+      <c r="P197" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>67</v>
+      </c>
+      <c r="R197" t="s">
+        <v>68</v>
+      </c>
+      <c r="S197" t="s"/>
+      <c r="T197" t="s">
+        <v>69</v>
+      </c>
+      <c r="U197" t="s">
+        <v>2019</v>
+      </c>
+      <c r="V197" t="s"/>
+      <c r="W197" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X197" t="s"/>
+      <c r="Y197" t="s"/>
+      <c r="Z197" t="s"/>
+      <c r="AA197" t="s"/>
+      <c r="AB197" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
+      <c r="A198" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B198" t="s"/>
+      <c r="C198" t="s"/>
+      <c r="D198" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E198" t="s"/>
+      <c r="F198" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G198" t="s">
+        <v>58</v>
+      </c>
+      <c r="H198" t="s">
+        <v>354</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K198" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M198" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N198" t="s">
+        <v>64</v>
+      </c>
+      <c r="O198" t="s">
+        <v>2026</v>
+      </c>
+      <c r="P198" t="s">
+        <v>2027</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>67</v>
+      </c>
+      <c r="R198" t="s">
+        <v>68</v>
+      </c>
+      <c r="S198" t="s"/>
+      <c r="T198" t="s">
+        <v>69</v>
+      </c>
+      <c r="U198" t="s">
+        <v>2028</v>
+      </c>
+      <c r="V198" t="s"/>
+      <c r="W198" t="s">
+        <v>2029</v>
+      </c>
+      <c r="X198" t="s"/>
+      <c r="Y198" t="s"/>
+      <c r="Z198" t="s"/>
+      <c r="AA198" t="s"/>
+      <c r="AB198" t="n">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
